--- a/Data_Learning_Prediction/FeatureSelection_TUR_GBR_841840_same.xlsx
+++ b/Data_Learning_Prediction/FeatureSelection_TUR_GBR_841840_same.xlsx
@@ -99,394 +99,396 @@
     <t>_1236_12</t>
   </si>
   <si>
-    <t>[ 0 25  4  7 19  3  6 17  9 13  8 21 20 15 11 14 12  5 18 10  1  2 16 24
- 26 23 22]</t>
-  </si>
-  <si>
-    <t>[ 0 26 28  5 46 32 37  8  4  7 36 10 54 50  2 21  9 35 38 48 29 14 12 22
- 44 39 31 49 13 20  6 34 33 42 18  3 40 41 15  1 19 11 25 53 43 45 16 47
- 17 24 27 51 55 52 23 30]</t>
-  </si>
-  <si>
-    <t>[ 0 26 28 60 74 64  5 32 37 59  8 76  4  7  2 54 65 10 63 66 38 36  9 56
- 46 57 50 35 21 62  6 29 72 12 78 22 39 77 82 67 69 31 13 34 49 19 42 15
- 18 81 14  1 40 48 33  3 73 20 68 70 11 44 25 41 71 75 58 43 16 83 45 47
- 53 17 61 24 27 55 30 23 79 51 52 80]</t>
-  </si>
-  <si>
-    <t>[ 0 26 18 20  4 10 22  8  9 14 21 16  5  6  7 13 11 19  1 25 12 15  3 17
- 23 27 24  2]</t>
-  </si>
-  <si>
-    <t>[46  0 36 48 26 32  4 18 38 10 22  9 28  8 34 49 44 29  7 35 20 50  6 11
-  5 31 19 37 53 54  1 14 39 21 12 42 40 13 33 16 25 15 41 55  3 45 43 17
- 47 51 30 27  2 23 52 24]</t>
-  </si>
-  <si>
-    <t>[60 74  0 76 64 26 32 59 65 36  4 46 22 18 61 38 10  7  8 68 29  9 34 28
- 66 49 62 57 11 63 50 31 48  1 77 21 72 35 81 56  6 67 54  5 44 19 69 12
- 55 39 16 82 40 15 73 42 13 37 33 70 20 83 25 14 41 53  3 30 78 75 58 71
- 17 43 47 45  2 27 51 79 23 52 80 24]</t>
-  </si>
-  <si>
-    <t>[18  4 20  8 10  6 16 22 21  0 14  7 26  3  9 12 11  1 19 13 23 25 17 27
- 15  5  2 24]</t>
-  </si>
-  <si>
-    <t>[32 46 36 48 18 37  4 31  8 10 33 22 21 26 29  6  7 49 40 34  1 38 39 35
-  9  0  3 42 12 20 53 28 11 16 55 27 44 14 50 41 54 30 13 25 15 19 45 17
- 43  2  5 23 47 51 52 24]</t>
-  </si>
-  <si>
-    <t>[32 74 36 60 46 76 18 31 37  4 48 10  8 64 22 63 26 33 56  7 77 34  1 65
-  6 81 29 72 40 68 38 35 39 69  3  0 66 62  9 55 12 49 14 28 70 21 67 82
- 78 73 59 11 42 61 50 16 75 20 27 41 54 57  2 19 53 44 30 15 83 13 17 45
- 71 25 58 23 47  5 43 51 79 80 24 52]</t>
-  </si>
-  <si>
-    <t>[18  4  8 20  9  3 12  5 16  1 21  6 14 10 22 26 25 27 13 17  7 11  0 15
- 19 23  2 24]</t>
-  </si>
-  <si>
-    <t>[ 4 46 18  8 32 48  9  3 20 36 35 12 49 44  1 40 53 28  6  5 38 34 27 10
- 21 37 45 26 41 14 42  7 50 11  0 25 54 16 47 39 13 22 19 17 31 30 55  2
- 33 15 29 43 23 52 24 51]</t>
-  </si>
-  <si>
-    <t>[ 4 76  8 18 65 32 46  3 74  9 56 36 63 62 77 12 35 10  6 20  1 59  5 49
- 82 68 48 61 38 28 53 64 44 27 67 60 78 75 40  7 37 69 73 70 21  0 34 26
- 41 13 57 31 22 81 14 25 11 39 83 72 33 54 50  2 66 19 55 42 17 29 16 58
- 47 45 15 71 43 30 23 80 52 79 51 24]</t>
-  </si>
-  <si>
-    <t>[18 20  4 16 21  8  7 12 19  9 25  0 10 13 14 22 27 26  6 17 11  3 15  5
-  1 23  2 24]</t>
-  </si>
-  <si>
-    <t>[48 18  4 37 46 28 35 20  7 34 49  8 21 47 13 10 12 25 41 45 16 50 40  9
-  6 31  0 39 54 33 36 42 14 44 32  3 29 22 19 38 53 17 26 11 15 55 43 27
-  5  1 30 51 52 24  2 23]</t>
-  </si>
-  <si>
-    <t>[76 18  4 65 62 82 37 74 64 46 63 77 35 48 28  8  7 10 25 21 49 34 13 75
- 59 47  9 56 19  0 41  6 61 45 39 36 40 78 81 12 29 31 73 32 57 68  3 33
- 16 60 20 14 69 54 42 38 50 53 22 70  5 30 26  1 17 66 15 72 11 80 44 43
- 71 27 67 55 83 58  2 51 23 52 24 79]</t>
-  </si>
-  <si>
-    <t>[20 18  9  0 21 19  7 13  6 17 22 16 14 12 25 26  3  8 11  4  5 27 10 15
-  1 23  2 24]</t>
-  </si>
-  <si>
-    <t>[48 18 37 46  9 54 34 49 35 36 19 20  0 47 13 31  7 21 28  6 17 12  4 11
-  8 53 33 50 25 45  1  3 22 40 16 26  5 29 42 10 41 14 44 32 15 27 52 39
- 38 55 43  2 30 23 24 51]</t>
-  </si>
-  <si>
-    <t>[76 82 18 62 74 35 37 34 54  9 36 19 63 65  0 49 77 13  7 46 21 59 69 31
- 40 12 57 11 67 64  6 47  8 28  1 33 20 66 29 45 25 22  4 68 17 56  3 61
- 60 53 48 10 41 73 78 16 26 81 32 50 27  5 14 39 75  2 15 71 42 55 38 70
- 52 58 72 44 43 30 80 83 23 51 24 79]</t>
-  </si>
-  <si>
-    <t>[20 18  0 22 17 16  8 21  7 13 12 19 15 26 10 14  3  6 11  4 25  5  9  1
+    <t>[ 0 26  5  4  8  2  7 18 20  9 21 14 10 22 13  6 15 16 12 19 25  1 11  3
+ 17 24 27 23]</t>
+  </si>
+  <si>
+    <t>[ 0 28 26 32 46  5 37  4  8  2  7 50 36 54 10  9 38 21 35 34 44 29 48 39
+ 18 42 13 14 22 31 12  6 15  1 49 33 25  3 43 40 16 47 11 20 41 45 53 19
+ 17 24 27 55 23 30 51 52]</t>
+  </si>
+  <si>
+    <t>[ 0 26 60 74 28 64 32  5  4 59  7  8 65 37  2 66 46 50 63 76  9 54 56 57
+ 35 21 10 38 29 36 67 78 62  6 22 12 18 72 34 77 39 31 13 48 69 40 82 73
+ 81 14 33 19 49 47 15  3 25 70  1 44 45 42 68 75 61 53 16 83 43 17 41 71
+ 20 11 58 24 27 55 79 51 23 52 30 80]</t>
+  </si>
+  <si>
+    <t>[ 0 18 26  4 20 10  8 22 16  9  5 21 14  6  7 13 11  1 25 19 15 12  3 27
+ 23 17 24  2]</t>
+  </si>
+  <si>
+    <t>[ 0 46 32 36 26  4 48 38 18 22 10  9  8 28 35  7 34 31 11  5 49 50 21 44
+ 19  6 37 53 29 54  1 20 42 13 40 45 55 41 14 33 12 16 15 39  3 47 43 17
+ 25 30 51 23 27  2 24 52]</t>
+  </si>
+  <si>
+    <t>[60 74  0 26 76 32 64 65 59 46 36  4 18 38 22 10  7 61  9 28 34  8 69 62
+ 77 56 50 35 48 66  6 63 68 11 72 29 31 49 57 40 19 55 42 21 12 44 70 39
+  5 73 82  1 37 67 15 83 53 54 13 78 25 45 17 16  3 81 14 71 41 51 58 33
+ 20 30 47 43 23 75 27  2 79 80 52 24]</t>
+  </si>
+  <si>
+    <t>[18  4  8 20 10 22  6 21  7  0 16 14  3 26 11 25 12  9  1 23 19 13 17 15
+  5 27  2 24]</t>
+  </si>
+  <si>
+    <t>[32 46 18  4 36 48 37 10  8 31 22 33 40  0 26  7 34  6 41 20  1 44 35 14
+ 38 55 12  3 49  9 29 53 39 28 11 21 54 45 43 19 42 27 30 16 17 13 50 15
+ 25  5 23  2 47 51 24 52]</t>
+  </si>
+  <si>
+    <t>[32 74  4 46 76 18 36 10 60 37  8 31 63 48 64 22 33 65 77  6 26 69  7 56
+ 72 68 29 66  0 38 34 40 81 49 39 73  9  3  1 55 16 20 14 12 62 35 28 21
+ 78 11 19 27 17 82 54 75 70 41 44 59 53 67 25 71 42 13  2 45 61  5 15 30
+ 50 43 57 83 58 47 23 51 79 80 52 24]</t>
+  </si>
+  <si>
+    <t>[18  4 20  8  9  3 12  5 21 10  6 13 16 27  1 14 17 22 15 26  7 11 19  0
+ 25 23  2 24]</t>
+  </si>
+  <si>
+    <t>[ 4 18 46 48  8  9 32  3 36 20 35 40 49 28 41  5 12  6  1 37 44 38 53 10
+ 26 21 13 34 47  7 50 27 14 54 16 11  0 17 31 22 25 45 55 39 42  2 19 33
+ 15 43 29 30 23 52 24 51]</t>
+  </si>
+  <si>
+    <t>[ 4 76 18 65 46  8 32  9 74  3 56 62 63 36 69 77 49 10 12 35 75 61 82 48
+ 38  6 68 41 27 26  1  5 64 40  7 59 28  0 44 53 37 13 78 22 57 17 11 21
+ 70 72 60 14 34 73 42 20 31 25 45 54 67 39 16 47 55 15 71 50 66 43 81 33
+ 19  2 29 58 83 30 52 23 80 79 51 24]</t>
+  </si>
+  <si>
+    <t>[18 20  4 16 13  7 21  8 19  9 12  0 22 10 14 25  6 17 27  3 26 11 15  5
+  1 24  2 23]</t>
+  </si>
+  <si>
+    <t>[48 18  4 37 28 46  8 35  7 34 13 47 41 20 33 49  9 10 25 36 21 31 40 32
+  6  0 12 50 16 42 45 14 54 39 53 29  3 44 19 22 27 15 26 38 11 55 17 43
+  5  1 52 30 51 24 23  2]</t>
+  </si>
+  <si>
+    <t>[76 18  4 37 65 82 62 64 46 74 63 77 41 28  8 35 75 47  7 59 13 34 33  9
+ 56 19 10 49 36 61 21 48  6 25 68  3 40 70 32 78 12 26 31  0 39 29 81 69
+ 14 16 57 53 22 60 38 45 42 80 44 72 50 54 15 17 73 66 43 20 67 11  1  5
+ 27 83 71 55  2 30 58 24 51 52 23 79]</t>
+  </si>
+  <si>
+    <t>[20 18  9 19 13  0 21  6  7 16  5 22 12 14 25 17  3 27  8  4 11 10 26 15
+  1 23 24  2]</t>
+  </si>
+  <si>
+    <t>[48  9 18 37 34 46 36 35 19 54 49 13  0 47 31 20 21 28  7  6 41  5  4  8
+  3 12 50 40 33 11  1 25 53 22 29 32 14 16 42 17 27 26 45 52 10 15 44 39
+ 43 38 55 30  2 24 23 51]</t>
+  </si>
+  <si>
+    <t>[76 82 18 74 62 19 13 37  9 34 36 54 35  0 63 49 60  7 31 65 47 69 46 67
+  6 33 21 77 40 28  8 61 57 64 59 81 12 48  1 29 66  3 56 41  4  5 75 25
+ 14 10 17 15 68 11 42 22 73 26 20 52 45 53 16 32 38 70 39 78 50 43 27 58
+ 72 71 44  2 23 55 80 30 83 51 24 79]</t>
+  </si>
+  <si>
+    <t>[20 18  0 17 22 16 21 13  7 12  8  4 19 10  3 26  5 14 11 15  6  9 25  1
  27 24 23  2]</t>
   </si>
   <si>
-    <t>[  0 104  26  93  28 102  74  90  64   5  60  32   7 105   8   4  59  84
-  37  91  97  66  85   2   9  10  65  87  35  50  63  22  46  62  36  38
-  54  56  92  21  94  57  88  77  34  12  29 110 103  13  95  78 101  31
-  89  15 106  39  18  33   6  49  53  40 109 100  67   1  69  72  96  20
-  98  81  70  68   3  14  82  19  99  42  73  41  43  75  45  76  44  11
-  25  86  83  17  61  71  16  47  55  58  27 111  48  79  24  51 107  30
- 108  80  23  52]</t>
-  </si>
-  <si>
-    <t>[  0  26 149  88 160  93  28 116  92 102  60  64  87 130   5  66 146  74
-  32   7  50 158 147 140   4   8 161  54  59 120  46 133  35  10  37   9
- 132 125 141 153  56  91 112   2 143  84  65 151 148 119 121  38  36  94
-  63  96 118 137  62  57  12  22  21 104   1 122 159 138  85  29  89 144
-  13 145  78  82  39   6 166  18  90  49 150  34  69 105  31 129 100  33
- 115  47 157 128  68  77 162  67  25  97 167 152   3  19  14  15 155 110
-  70  20  61 156 101 142 165  43 124  42  53  41  72  81  40  95 109 117
-  76  73  11 154 127 134 131  99  44 126  16  71 123  75  58  86  83  55
- 111  98  48 114 103  30  24 113 106  45 139  27  79  17 135  51 136 163
- 107  80 164 108  52  23]</t>
-  </si>
-  <si>
-    <t>[112   0 104  93 102 138  60  64  90  26  74 140 105  28  59  66  91  84
-  97 117   5  57  32  62 100  85  65 158 149 110   8  89 103   7   4 144
-  87  56 120  88  63 119  95  92  54  10 116 162   9  77  37 101  94 121
-  35   2  78  38  70 150 147  50  67  68  46 122  96 114  82  36 141 109
- 166  13  69 151 148 125 134 118  86  22 146 130  99 124  12 143  72  18
-  98 111  15  34  49  29  21  76  39  42 106  73 153  31   6 133 127 131
-  61 161 115  71 145  33 156 160  75   1 126  14 154  79  11 113 155 165
- 152  25  83  16   3  53  58 132  19  81  40 123  44  41  20 159 157  47
-  45 136 129 128  17  43  27 163 167 137 139 142  48 107  23  52  51 164
-  30  55  80 135  24 108]</t>
-  </si>
-  <si>
-    <t>[3.5493058 0.1751023 0.1538962 0.3747419 0.5876376 0.2271465 0.3732184
- 0.4248388 0.2760081 0.3186257 0.1849567 0.2388993 0.2343721 0.3090268
- 0.2385711 0.2552069 0.1474766 0.3395464 0.1879596 0.3929081 0.2563894
- 0.2570834 0.0882514 0.1106319 0.1448441 1.032004  0.1134006]</t>
-  </si>
-  <si>
-    <t>[7.0260063 0.182266  0.3646438 0.2283503 0.5457406 0.9661553 0.2682932
- 0.5047125 0.6302    0.3435421 0.4305171 0.174139  0.3045622 0.2717701
- 0.3054454 0.2038392 0.1610767 0.1446952 0.232111  0.1790317 0.2714046
- 0.3618947 0.2934143 0.0592141 0.1260217 0.1709709 1.7005511 0.1102811
- 1.3339978 0.3079401 0.0538893 0.2801685 0.8580624 0.2366274 0.254171
- 0.3344872 0.4420355 0.6802227 0.3221811 0.2825697 0.2204592 0.2180677
- 0.2354944 0.1658113 0.282733  0.1641145 0.8795106 0.1524739 0.3126727
- 0.2756396 0.4012357 0.1023074 0.0614276 0.1688048 0.4150444 0.0767472]</t>
-  </si>
-  <si>
-    <t>[9.0760476 0.1720292 0.4299964 0.1659116 0.5500718 0.8123025 0.2625169
- 0.5436353 0.6156156 0.3300973 0.3760264 0.1514919 0.2399741 0.2096448
- 0.1748211 0.1884749 0.1221029 0.0954008 0.1848574 0.1985253 0.1635236
- 0.2911162 0.2329513 0.0565397 0.0723903 0.1475314 1.5856078 0.0672934
- 1.2534001 0.2509814 0.0573553 0.2101867 0.7422394 0.1668263 0.2051752
- 0.2913007 0.3314893 0.6626184 0.333717  0.2309076 0.1685961 0.1470505
- 0.19472   0.1252797 0.1500955 0.1096302 0.3073354 0.1042779 0.1682876
- 0.1992467 0.2957625 0.0486519 0.039895  0.0981997 0.4228561 0.0607248
- 0.3138295 0.3017975 0.136833  0.6204686 1.036334  0.0869695 0.2777432
- 0.3342671 0.9701532 0.3851952 0.3338423 0.2178277 0.1633111 0.2110276
- 0.1608167 0.1406193 0.2454525 0.1642289 0.9909224 0.1404052 0.5897147
- 0.2307586 0.2374197 0.0538797 0.0385358 0.1762936 0.2277147 0.1161337]</t>
-  </si>
-  <si>
-    <t>[1.9065726 0.329821  0.1166497 0.2723127 0.9457912 0.4479846 0.4241621
- 0.410537  0.599756  0.525947  0.6531643 0.383867  0.2971625 0.3956941
- 0.5011042 0.296364  0.4896746 0.2390385 1.1527429 0.356894  1.0050032
- 0.4948189 0.6096968 0.1976808 0.1527172 0.3221786 1.2350763 0.1655691]</t>
-  </si>
-  <si>
-    <t>[1.9011781 0.2874686 0.1026943 0.1948656 0.8509308 0.3380912 0.3456058
- 0.3872293 0.4699258 0.4944153 0.5960444 0.3417006 0.2504623 0.2483639
- 0.2868136 0.215307  0.2208203 0.1663067 0.6609978 0.3371728 0.3570469
- 0.2616808 0.5599178 0.0881654 0.0556041 0.2184873 1.2253659 0.1115661
- 0.4919714 0.3931789 0.1332841 0.337923  1.2189307 0.2302363 0.4379494
- 0.3826368 1.3650361 0.3011496 0.6088075 0.2735546 0.2485876 0.2031193
- 0.2487013 0.1684583 0.4146487 0.1886581 2.1064352 0.1586218 1.2355699
- 0.4153236 0.3484475 0.1554252 0.0732553 0.3006412 0.2875225 0.2014045]</t>
-  </si>
-  <si>
-    <t>[2.1022692 0.3061054 0.1227313 0.1627014 0.9774241 0.2557604 0.2734201
- 0.4631632 0.4133933 0.3849966 0.6040497 0.3352393 0.2351318 0.2138689
- 0.1885883 0.2166865 0.2242129 0.1328152 0.7035204 0.2515299 0.1986989
- 0.3034246 0.8145951 0.0813961 0.0422095 0.196762  1.7296413 0.1125038
- 0.3702927 0.3901542 0.1614658 0.3189863 1.2114657 0.204528  0.3729214
- 0.2926471 1.1457528 0.209376  0.6093916 0.2334193 0.2194916 0.173849
- 0.215127  0.1302214 0.2537099 0.1259755 0.9045751 0.1260455 0.3105831
- 0.3556244 0.3270315 0.0922348 0.0682639 0.1730919 0.2652343 0.2343231
- 0.2814692 0.3368445 0.1483595 1.2022365 3.1263285 0.6976875 0.3514105
- 0.3314503 1.8585192 1.1983802 0.3602203 0.2726303 0.394046  0.2405525
- 0.2044664 0.1466566 0.3033337 0.2162968 2.4537252 0.1545844 2.0172317
- 0.3051328 0.1565643 0.0872214 0.0463868 0.2882443 0.2217915 0.1980248]</t>
-  </si>
-  <si>
-    <t>[0.4026523 0.3083881 0.1662664 0.3596508 1.3613112 0.2021188 0.5402254
- 0.3811215 1.0314009 0.3361631 0.7765252 0.3136151 0.3160193 0.2598204
- 0.3978479 0.2245086 0.461418  0.2432455 1.9005885 0.2965418 1.109092
- 0.4411599 0.457146  0.2529364 0.1078781 0.2514881 0.3652703 0.2370657]</t>
-  </si>
-  <si>
-    <t>[0.310996  0.3446417 0.1690179 0.3081133 1.0894402 0.1616532 0.4276062
- 0.4154119 0.9493904 0.3137289 0.8635867 0.2778687 0.3016099 0.2103114
- 0.252648  0.2063239 0.2644504 0.1858475 1.2580445 0.196621  0.2987042
- 0.4879717 0.529224  0.1604605 0.0666419 0.2073744 0.4492384 0.2582185
- 0.2821436 0.4289785 0.21142   1.031049  2.8541809 0.5981247 0.3653606
- 0.3151407 1.8287294 1.159697  0.3434614 0.3198883 0.3962083 0.2193947
- 0.304336  0.1729232 0.2572281 0.1964068 2.4914435 0.1548661 1.5843507
- 0.3989083 0.2372494 0.0954493 0.0752217 0.297261  0.2140759 0.263478 ]</t>
-  </si>
-  <si>
-    <t>[0.2951278 0.4169382 0.174962  0.2964947 1.040732  0.1251308 0.3969478
- 0.445849  0.9006123 0.2797625 0.9191432 0.2152748 0.2590288 0.1492447
- 0.257325  0.1542326 0.2011247 0.1484394 1.2352893 0.1729467 0.1967983
- 0.2460988 0.5317546 0.1260108 0.0541483 0.1328323 0.5080567 0.1876643
- 0.2550032 0.3734314 0.1603066 1.1142789 2.7745595 0.4517614 0.4216628
- 0.3053379 1.7723493 1.0946299 0.3376865 0.2993242 0.3522199 0.1872714
- 0.2121124 0.1163493 0.1617929 0.147113  1.6256695 0.1256871 0.9443362
- 0.2588696 0.2017774 0.0948836 0.0481385 0.1707404 0.1800985 0.2601304
- 0.4463249 0.17788   0.1266779 0.2203193 1.7535598 0.2062015 0.2822444
- 0.5268496 0.5599307 0.4018857 0.2939873 0.2422831 0.3434202 0.2965226
- 0.2513605 0.141744  0.3585314 0.2212134 2.0680947 0.2002027 1.3129145
- 0.4331733 0.2233411 0.0568781 0.0545254 0.3852359 0.2363225 0.1536836]</t>
-  </si>
-  <si>
-    <t>[0.2821516 0.4597502 0.1948068 0.7871985 2.0979801 0.4790438 0.3967204
- 0.3065063 1.4295012 0.9223165 0.3690582 0.2967969 0.5028586 0.3257331
- 0.3860437 0.2730022 0.4725453 0.3091908 2.1092329 0.2640506 1.3888635
- 0.4524891 0.3647478 0.1953721 0.1206508 0.3540238 0.3618667 0.3435236]</t>
-  </si>
-  <si>
-    <t>[0.2804221 0.4170096 0.1853665 1.0052662 2.3571754 0.4014473 0.4071851
- 0.2957641 1.5552505 1.0159865 0.3665117 0.2878344 0.4980847 0.2526448
- 0.3018145 0.1804557 0.2623329 0.2307228 1.5770858 0.2367405 0.9356587
- 0.3636896 0.2375129 0.1051578 0.0785584 0.2757357 0.3098057 0.3714548
- 0.41022   0.1555233 0.208508  0.2277508 1.5270173 0.1820583 0.3731499
- 0.5996223 0.6191992 0.3601362 0.4003702 0.2565878 0.4152138 0.3039331
- 0.2966618 0.151758  0.4480237 0.3326015 1.8227558 0.2608636 1.2275465
- 0.4813766 0.2947705 0.0754882 0.0939794 0.4131223 0.2713948 0.2077671]</t>
-  </si>
-  <si>
-    <t>[0.3063044 0.4108332 0.2079844 1.1679325 2.5953503 0.3769493 0.4286933
- 0.3168608 1.9548422 1.0670812 0.5243915 0.2471484 0.5508915 0.2801901
- 0.2562407 0.1519782 0.1711003 0.1827819 1.9397156 0.1933765 0.4152698
- 0.3084108 0.2630422 0.1022301 0.063411  0.2518474 0.2963599 0.3338822
- 0.3548776 0.1727416 0.1087554 0.2648018 1.5423704 0.2109884 0.2994246
- 0.546789  0.6870664 0.3146806 0.3558043 0.2382847 0.3208793 0.2865924
- 0.1875369 0.1279076 0.3423933 0.1564013 1.3823785 0.1609529 0.3629218
- 0.3767941 0.2082565 0.0645222 0.0770523 0.3536245 0.210717  0.1911098
- 0.7301881 0.2683776 0.1613012 0.3790419 0.3283216 0.3598815 0.6613666
- 0.6800041 0.3456762 1.5475968 0.2071607 0.3307677 0.3676981 0.3130541
- 0.3126372 0.1397797 0.2155913 0.3128623 1.1358823 0.3216847 2.5294194
- 0.6012242 0.3261119 0.0676796 0.0893504 0.2616708 0.373427  0.2268577]</t>
-  </si>
-  <si>
-    <t>[0.4863767 0.2062728 0.1585548 0.3471326 1.5102489 0.2594117 0.3701301
- 0.5799098 0.5909057 0.5141489 0.4854854 0.3475444 0.5275377 0.4675426
- 0.4458773 0.2861541 0.6288331 0.3588012 2.0889816 0.5245418 1.7138326
- 0.6254348 0.4281864 0.1800898 0.1584223 0.5009589 0.3814054 0.4071052]</t>
-  </si>
-  <si>
-    <t>[0.3202746 0.1530519 0.0892153 0.2628707 1.5245569 0.175937  0.3309008
- 0.5551833 0.5211658 0.337708  0.420028  0.2130109 0.3984742 0.4296987
- 0.2912119 0.2095124 0.3680469 0.2187913 1.8430069 0.2410902 0.5731378
- 0.4567198 0.2473277 0.0754902 0.0965805 0.3815814 0.2151949 0.18289
- 0.7196519 0.2575918 0.1437646 0.3214288 0.2745582 0.3063597 0.5315393
- 0.6037578 0.3050104 1.3045174 0.2332113 0.3148618 0.3380103 0.3764051
- 0.3048617 0.1999032 0.2838937 0.3743774 0.9865146 0.443099  2.3904661
- 0.5240797 0.3501332 0.1391721 0.1084156 0.2319199 0.3099791 0.2034496]</t>
-  </si>
-  <si>
-    <t>[0.4353356 0.1827702 0.1030817 0.3184402 1.6279402 0.1886642 0.3965224
- 0.5984836 0.6256137 0.4450204 0.5659761 0.1660813 0.3477113 0.5053414
- 0.2599417 0.1759856 0.2827053 0.1775996 1.9585301 0.4371648 0.2675353
- 0.5430373 0.2184083 0.0817691 0.054825  0.5460817 0.183151  0.1451139
- 0.6925179 0.3425842 0.1873259 0.3379631 0.3254649 0.2950958 0.5135578
- 0.7295933 0.3700369 1.1510446 0.2262826 0.3733919 0.366365  0.4076945
- 0.2268527 0.1528222 0.1534022 0.3785547 0.8926682 0.4543619 0.7227733
- 0.5306305 0.2206463 0.0906731 0.0757109 0.2185558 0.2384522 0.1363241
- 0.4397909 0.3213301 0.1316826 0.4554002 0.2736386 0.3885343 1.243778
- 0.8385257 0.9938937 1.3015995 0.1763372 0.1382231 0.3187488 0.2388002
- 0.202581  0.1480573 0.1758194 0.3312205 1.0247733 0.4606831 5.8464244
- 0.7918919 0.3608491 0.0467179 0.1652206 0.3600554 1.1701811 0.1334351]</t>
-  </si>
-  <si>
-    <t>[0.7018386 0.2385938 0.1504151 0.3572506 0.3455427 0.326499  0.4926664
- 0.5384672 0.350906  1.1583971 0.283177  0.3475432 0.4019368 0.5100252
- 0.411062  0.2768263 0.413985  0.4793461 1.3590164 0.6169059 2.6026562
- 0.652461  0.4285901 0.1973785 0.1136249 0.3742295 0.3626467 0.3255859]</t>
-  </si>
-  <si>
-    <t>[0.576689  0.3372887 0.164052  0.3316626 0.3924209 0.2833689 0.4486239
- 0.4694355 0.3869013 0.9709617 0.2605422 0.3880176 0.4153741 0.540077
- 0.2336517 0.2187207 0.2886003 0.431153  1.7654943 0.742605  0.7081148
- 0.4677601 0.331184  0.1124025 0.0872642 0.3538722 0.2873795 0.2088192
- 0.4641358 0.2800359 0.1176091 0.5225391 0.231546  0.3610182 0.8612364
- 0.7697154 0.7609657 1.1182575 0.1983778 0.1985611 0.3046011 0.2484192
- 0.2611307 0.1755144 0.2330625 0.3501411 1.0127111 0.5477856 3.8291329
- 0.7809007 0.358166  0.0780251 0.2057962 0.3642721 0.8633451 0.1821218]</t>
-  </si>
-  <si>
-    <t>[0.6566932 0.335272  0.1945842 0.2828261 0.2964859 0.2120544 0.3528382
- 0.5445866 0.3384717 0.8915709 0.2668665 0.3817885 0.4119986 0.5568943
- 0.2110076 0.1866169 0.247143  0.289064  1.3160448 0.7486539 0.3151629
- 0.5384725 0.3005863 0.0646599 0.0526683 0.3024639 0.2361883 0.2215417
- 0.3362389 0.3109741 0.0869394 0.4425091 0.2246881 0.3339405 1.0151809
- 1.0379649 0.8209362 1.0153818 0.1579824 0.2028779 0.4301568 0.2645483
- 0.1765605 0.105614  0.1218172 0.3085193 0.5430992 0.3441292 0.26981
- 0.6551027 0.2235594 0.0562938 0.1415464 0.2751023 0.9198339 0.1618629
- 0.2863214 0.4022085 0.1370048 0.492467  0.2804418 0.2827827 1.0740308
- 0.7416944 0.3532874 0.7276876 0.3115353 0.3812735 0.2911856 0.4714297
- 0.1489845 0.1770641 0.1297299 0.2589619 1.0444924 0.2017857 7.5587224
- 0.5688741 0.2556771 0.0377797 0.0865633 0.2328718 1.4021872 0.0852695]</t>
-  </si>
-  <si>
-    <t>[1.2671031 0.2347903 0.101772  0.3432568 0.3169884 0.3101443 0.3379088
- 0.4717883 0.5472839 0.2702211 0.3633767 0.3215797 0.4288807 0.446718
- 0.3577615 0.3835902 0.6814809 0.8799892 1.4571527 0.4024348 2.8425539
- 0.4732688 0.9614956 0.1327147 0.1330881 0.3131695 0.3812292 0.1658691]</t>
-  </si>
-  <si>
-    <t>[11.3510151  0.1876101  0.4074712  0.1568063  0.593617   0.8997897
-  0.2118889  0.6609881  0.6048069  0.4024875  0.3933908  0.1098565
-  0.2780676  0.2588364  0.1565002  0.2290785  0.0890082  0.1003624
-  0.2148197  0.1406996  0.1676259  0.3125047  0.357413   0.0339199
-  0.0721024  0.1091804  1.9082657  0.0777014  1.3289187  0.2775797
-  0.0497428  0.2512451  0.6755388  0.2119534  0.2781885  0.3700486
-  0.3425827  0.510455   0.3422984  0.2170068  0.2054719  0.1311648
-  0.1354442  0.1266709  0.1119231  0.1233948  0.344061   0.0836103
-  0.0741846  0.2095922  0.3669688  0.06557    0.031372   0.2095366
-  0.3274451  0.0809902  0.3257317  0.2989346  0.0793549  0.5505607
-  0.7712978  0.0965853  0.3439654  0.3581586  0.8997912  0.3853028
-  0.4693545  0.1905916  0.1573557  0.1845627  0.158531   0.0890275
-  0.1763678  0.1320857  1.0501336  0.1243417  0.1148745  0.2831498
-  0.2533634  0.0722489  0.0366332  0.1647964  0.1541288  0.1004781
-  0.5495978  0.4377445  0.1079929  0.3714343  0.2927479  0.2356821
-  0.9703408  0.4858163  0.3245721  1.6990366  0.3001951  0.2549252
-  0.1739231  0.4806043  0.1673179  0.1381805  0.1926575  0.2521688
-  1.2279421  0.2665866  2.7437339  0.6602398  0.2274556  0.0510849
-  0.0408491  0.203372   0.2768401  0.0756272]</t>
-  </si>
-  <si>
-    <t>[17.5253735  0.3296342  0.4675958  0.2061216  0.7190207  0.9958642
-  0.2870143  0.813081   0.7044962  0.5500426  0.5536255  0.1391855
-  0.3548625  0.3090892  0.1954776  0.1873985  0.1174043  0.0584714
-  0.2651923  0.1992018  0.1754999  0.3445464  0.348704   0.0313852
-  0.0862377  0.2114961  3.2739037  0.0612599  1.8249917  0.3166162
-  0.0876374  0.243828   0.8685859  0.2376281  0.2573613  0.5617277
-  0.4008048  0.5526651  0.4046776  0.2943983  0.1510942  0.1601426
-  0.1631271  0.1656857  0.1217023  0.0793561  0.5856533  0.2296724
-  0.0980792  0.2622148  0.7910923  0.0543889  0.031503   0.1628681
-  0.6062227  0.1040432  0.4837822  0.3575683  0.1123336  0.6046673
-  1.2479286  0.1706321  0.3626108  0.3772338  1.222532   0.4514769
-  0.9516391  0.2151887  0.226116   0.2484762  0.1771141  0.1164278
-  0.1528303  0.1441019  0.913855   0.1128496  0.1445945  0.2253611
-  0.2979772  0.0586591  0.0409234  0.151587   0.2973631  0.1054938
-  0.453801   0.3175712  0.1065196  1.1743147  2.7175199  0.3143904
-  0.26452    0.4820754  1.6540777  1.9391712  0.3912715  0.1505134
-  0.3772162  0.2113283  0.0988792  0.1227204  0.2394153  0.1670368
-  1.3282298  0.0931094  0.343806   0.2480932  0.0816981  0.0445568
-  0.0315905  0.1483258  0.1771971  0.0988828  0.4781736  0.084591
-  0.0964003  0.2337028  1.6588648  0.1446334  0.368767   0.4123519
-  0.591496   0.4098166  0.3265738  0.1152821  0.1633876  0.5393624
-  0.1209846  0.1329075  0.2277349  0.2432198  1.1641085  0.1228803
-  0.5425199  0.5727913  0.1249655  0.0559378  0.0524852  0.3633868
-  0.317803   0.0667661  0.7259509  0.5337019  0.1659185  0.456867
-  0.3136963  0.2984392  0.9488589  0.7514838  0.4227295  2.9859428
-  0.2585191  0.4458249  0.208124   0.4906843  0.1353645  0.1838588
-  0.1700165  0.2282252  0.7872645  0.3228472  2.6314005  0.6272675
-  0.220899   0.0498168  0.0403436  0.1657225  0.2662347  0.2085223]</t>
-  </si>
-  <si>
-    <t>[9.4410856 0.1628575 0.344867  0.1434713 0.5181602 0.6891667 0.1886486
- 0.5192695 0.5278707 0.4098898 0.4239959 0.155026  0.2306816 0.2718234
- 0.158681  0.2140346 0.1476087 0.0863521 0.2193041 0.1309117 0.1043601
- 0.1995343 0.2441152 0.0628031 0.0285823 0.1482682 1.4693531 0.0774877
- 1.2014903 0.2008385 0.0497455 0.1903726 0.6312391 0.170899  0.206587
- 0.345112  0.2759623 0.3776164 0.3432564 0.1983267 0.1154354 0.1052475
- 0.1982549 0.0852785 0.1133989 0.0902488 0.2990859 0.0905834 0.0675087
- 0.2053885 0.3139964 0.0618332 0.0625964 0.1433121 0.424423  0.0496479
- 0.4966866 0.6756744 0.1363891 0.9852411 1.6969451 0.1852432 0.5813528
- 0.4909168 1.5833533 0.5539105 0.8864105 0.3125263 0.3091286 0.2696493
- 0.3431865 0.1796538 0.2208136 0.1920743 1.4529962 0.1640939 0.1986783
- 0.3888244 0.3445062 0.1550647 0.0495061 0.1185011 0.2838572 0.1482059
- 0.8322726 0.5603178 0.2443419 0.4994761 0.4941535 0.5217125 1.5118132
- 0.8522864 0.4324248 2.9373211 0.3652459 0.4554186 0.2888776 0.7949494
- 0.2168077 0.2337805 0.5797758 0.3661944 2.0807914 0.5215566 4.548167
- 1.2276234 0.1942436 0.0651212 0.0237929 0.2744078 0.535725  0.215228
- 9.7866841 0.1532375 0.2883347 0.1832601 0.4187083 0.7357608 0.2601618
- 0.4588593 0.4957329 0.3526816 0.2911334 0.114945  0.2334235 0.2670033
- 0.1605524 0.1867638 0.0884414 0.0890672 0.23843   0.1865361 0.1362833
- 0.1874053 0.2643336 0.0450295 0.0894814 0.072682  2.0499593 0.0678698
- 1.3190038 0.2745226 0.0678169 0.2272705 0.5129899 0.1750071 0.2398274
- 0.3157334 0.2672261 0.5385718 0.3178296 0.2676961 0.1500621 0.1906525
- 0.1577962 0.1532373 0.1689154 0.0905992 0.5407506 0.0954258 0.1677781
- 0.1851545 0.4176759 0.0752956 0.0579859 0.151105  0.2725536 0.0752283]</t>
+    <t>[  0 104  26  93  28  60 102  74  90  97  32   7  64   5  59  84   4  37
+  50  66 105   9  46   8  35  63  85   2  91  89  56  10  65 103  92  21
+  62  87 100  29  54 110  95  94  38  88  18  22  34  77  36  57  31  14
+  72  68  69  12  67   1   6  19  82  78  70  39  33  49  15  25  13  96
+ 106 101   3 109  76  73  20  47  42  41  40  99  75  81  11  98  43  44
+  17  45  71  61  58  48 111  83  53  79  27  86  16  24  55  51  23  30
+  52 108 107  80]</t>
+  </si>
+  <si>
+    <t>[  0  88  26 160 149  28  93  60 130 146 102  32  64  74 158  92 153   5
+ 116   4  66   8   7  87 140  54  37 147  65  50 119 120  10  59  46  38
+   9   2 133  84  35  22  63 125 143 112 161 121 148 141  90 145  91  78
+  89 159  21  34  96 132  56  12  29  57 118  85  36  13  62  94 151 166
+ 144  14  70 150 128  31 152 138 105 104  97  19  39 122  82   6 137 154
+  18  77  49  67  40 115   1  69   3 123 165  68 156  15 110  33 155  41
+ 124 100  42 101 157  47  53  73  71 129  72 131  83 117 134  11  61 162
+ 126  81  95  25 113  44  45 109  58 127  43  98 106  99  16 139  20 167
+  75  17  86 103 114  55 142 111  48  76  30  27  79  80 163 135  51 107
+  24  23 164 108 136  52]</t>
+  </si>
+  <si>
+    <t>[112   0 104  93  60  74  26  97  90 138  28 102  64 140 144  84  59  91
+ 105   5  66  32  65  85  63 110  89  92   4  62  57 117 120  56  87 119
+ 149  95   7 103 116   8 121  88  37  70  78 100 114  50  38  94 158  10
+ 162 147  77 146  68 148 101   2 150  35 166  36 122  69  67  82 151  46
+  72  96   9  12  73 133  22 134 118  34  21  81  18  54 106 130  99  98
+ 125  39 145  19 124  31 152  29 109   6 143 161  58  13 141  33  76 131
+  15  40  14  61 127 126  49   3 113  41   1 115  48 154  71 137 156 153
+ 155  25 111  79  43  47  83  42  44 165  45 123 129 128 132  17  75 157
+  11 159  86  16  27  51  20  80 164 160  24 163 139  30  53 167  55 107
+ 136 142  23 135  52 108]</t>
+  </si>
+  <si>
+    <t>[4.5500819 0.1989587 0.4807982 0.189626  0.5576007 0.8133444 0.280237
+ 0.4749057 0.5093581 0.3661516 0.3042158 0.1906441 0.2459726 0.282006
+ 0.308469  0.2716293 0.2630586 0.1817937 0.434372  0.2029595 0.419058
+ 0.3181044 0.2956444 0.0982452 0.1486744 0.2020309 1.2859144 0.1280212]</t>
+  </si>
+  <si>
+    <t>[7.2380558 0.2338437 0.4711134 0.1914429 0.6061818 0.8376469 0.2465711
+ 0.4627603 0.5875803 0.3635992 0.3932685 0.1815721 0.248563  0.2677373
+ 0.2617599 0.2426283 0.1870617 0.148029  0.2856452 0.1601086 0.1795617
+ 0.3366856 0.2571298 0.0758418 0.1037765 0.1970734 1.5295115 0.092299
+ 1.5645174 0.3094105 0.0713955 0.2488551 0.937763  0.2295192 0.3195757
+ 0.3332095 0.4491354 0.6692815 0.3550074 0.2863932 0.1881404 0.1795481
+ 0.2796505 0.1890995 0.3176502 0.1715256 0.9314044 0.1826817 0.3019729
+ 0.2328632 0.4523164 0.0712155 0.0649637 0.1605835 0.407079  0.0825468]</t>
+  </si>
+  <si>
+    <t>[11.7272567  0.2055968  0.6257431  0.2318652  0.800123   1.0656702
+  0.316945   0.7067614  0.6694623  0.5025191  0.4225548  0.1502438
+  0.31144    0.2609085  0.2431031  0.2326522  0.1806968  0.1725612
+  0.3038474  0.2408386  0.1572944  0.4329832  0.3147979  0.0597602
+  0.1214445  0.2130971  2.1659401  0.1068794  1.6018645  0.3985202
+  0.0553546  0.267816   1.0770963  0.2428303  0.2927586  0.4337303
+  0.3529915  0.6404426  0.4172585  0.2761055  0.2556172  0.170961
+  0.2016628  0.1741194  0.2038622  0.2024235  0.5593917  0.2339503
+  0.259759   0.236556   0.5477129  0.0629569  0.0588575  0.1828123
+  0.4954027  0.09345    0.4741277  0.4670458  0.1431042  0.7851037
+  1.8740546  0.1858675  0.3176059  0.5168334  1.2438452  0.6417286
+  0.5671273  0.331132   0.2002324  0.2587641  0.2125821  0.1669876
+  0.3033952  0.2436222  1.7764768  0.1873377  0.5107326  0.278921
+  0.3275305  0.0829527  0.0502772  0.2433682  0.250082   0.1755329]</t>
+  </si>
+  <si>
+    <t>[1.9661769 0.3557713 0.1013304 0.2476926 1.0777445 0.4656643 0.4259097
+ 0.4047991 0.590402  0.4681123 0.7262861 0.3698526 0.270716  0.3746025
+ 0.4353155 0.2932679 0.5304443 0.2027601 1.1942877 0.3433471 0.8655302
+ 0.4456344 0.5529969 0.217332  0.1677761 0.3533198 1.1193849 0.2174795]</t>
+  </si>
+  <si>
+    <t>[2.2423499 0.2380333 0.0653061 0.1674239 0.8257891 0.3073909 0.2688676
+ 0.34563   0.424316  0.4357422 0.4550223 0.3090232 0.1953489 0.2233413
+ 0.2055098 0.1823839 0.1933794 0.1394391 0.5563018 0.2727814 0.2323512
+ 0.2905046 0.5058309 0.0968673 0.0596731 0.1360419 0.9472705 0.0722264
+ 0.3938085 0.250522  0.1084007 0.3254467 1.6768359 0.2015897 0.3311365
+ 0.3636824 1.0274308 0.2666164 0.5820788 0.1768971 0.2227015 0.2139925
+ 0.2271561 0.140994  0.274658  0.2225299 1.8123843 0.1495769 0.765113
+ 0.3070409 0.3050729 0.0997699 0.0456585 0.2515366 0.2399172 0.217765 ]</t>
+  </si>
+  <si>
+    <t>[1.8438576 0.2176466 0.0772177 0.1723356 0.9512456 0.2221135 0.3117294
+ 0.4989021 0.3589579 0.4027225 0.5635427 0.300556  0.2375988 0.1979194
+ 0.1664362 0.2066857 0.1797111 0.1798128 0.9134754 0.2541829 0.1446407
+ 0.2405929 0.7536945 0.1130532 0.0403688 0.1831136 1.4536288 0.0871401
+ 0.376578  0.2913756 0.1403638 0.2730619 1.3655387 0.1449018 0.3718155
+ 0.3195341 1.0058491 0.2126234 0.7625682 0.2239425 0.2636695 0.1591572
+ 0.2490441 0.1145394 0.2299106 0.1829267 1.0501742 0.127387  0.3192433
+ 0.2711116 0.3195912 0.146046  0.0438197 0.2009744 0.2008167 0.2521003
+ 0.3200133 0.2660403 0.1458848 1.1005106 3.4135786 0.4610052 0.3237431
+ 0.3091209 1.2946067 1.1700458 0.3150054 0.2067106 0.3070518 0.3566624
+ 0.2257469 0.1623864 0.2938672 0.2196093 2.6641921 0.1123654 1.4112776
+ 0.3236773 0.1917016 0.0672063 0.0572436 0.1682158 0.2179178 0.2065272]</t>
+  </si>
+  <si>
+    <t>[0.3737297 0.2475103 0.1599122 0.3148873 1.6410555 0.2065651 0.4221924
+ 0.384843  0.868562  0.2654031 0.7574064 0.308063  0.2654785 0.2264412
+ 0.3342991 0.2070051 0.3535484 0.225937  1.7634921 0.2318163 0.7918067
+ 0.4182672 0.436246  0.2474112 0.118314  0.2789178 0.3146199 0.1950395]</t>
+  </si>
+  <si>
+    <t>[0.394144  0.3094374 0.1528383 0.2750459 1.3148598 0.1560141 0.3506905
+ 0.363404  0.7708838 0.2722899 0.8105415 0.2230589 0.2806373 0.1846083
+ 0.285229  0.1606153 0.1897004 0.1874114 1.4313802 0.1951163 0.3240193
+ 0.2193804 0.5228873 0.1556334 0.0583446 0.1568931 0.3784043 0.1933651
+ 0.2405203 0.2694318 0.1902335 0.7201401 2.8106801 0.4968194 0.3580537
+ 0.2853329 1.1589579 0.9742294 0.2847727 0.2462272 0.3964321 0.3263277
+ 0.1934046 0.2004646 0.3020619 0.202011  2.2359775 0.1201673 1.0428302
+ 0.2740205 0.1772272 0.0898551 0.0581387 0.2621481 0.2111106 0.2837369]</t>
+  </si>
+  <si>
+    <t>[0.353896  0.2919064 0.1698921 0.2965442 1.836465  0.1503293 0.4397569
+ 0.4186221 0.8026044 0.3002043 1.1981855 0.2268175 0.254098  0.1716522
+ 0.2590151 0.1502376 0.2718362 0.2145814 1.3201453 0.2211666 0.2635921
+ 0.2404825 0.5395057 0.0865304 0.0386703 0.1813172 0.429141  0.2153111
+ 0.2407819 0.3849638 0.148724  0.7474941 3.2853328 0.4650522 0.3508902
+ 0.2467037 1.2458186 0.8251515 0.3516641 0.3155481 0.3449034 0.1959958
+ 0.1769522 0.140648  0.1937448 0.1553798 1.4662429 0.0978313 0.6198708
+ 0.3237482 0.1484798 0.0697024 0.0438993 0.1819663 0.2002083 0.2750815
+ 0.414096  0.1343293 0.1228747 0.1853615 1.0173979 0.1521176 0.249978
+ 0.6624735 0.5428021 0.450373  0.3567142 0.181522  0.390783  0.4260781
+ 0.1988033 0.1796074 0.4035407 0.3041639 2.0422678 0.1994128 1.34446
+ 0.4493841 0.2357484 0.0651147 0.0479256 0.3400116 0.2004303 0.1276427]</t>
+  </si>
+  <si>
+    <t>[0.2057442 0.2835627 0.1430181 0.4450805 1.6664381 0.3451018 0.3088017
+ 0.2365614 0.8605591 0.6466188 0.3112031 0.2175102 0.3615891 0.2976897
+ 0.2608684 0.2503551 0.2932115 0.2519509 1.7003807 0.2135852 0.9914021
+ 0.342863  0.2514094 0.1460187 0.0880181 0.2019158 0.248163  0.2847933]</t>
+  </si>
+  <si>
+    <t>[0.3109416 0.4565206 0.2297613 0.8825395 3.4078928 0.5240719 0.4652181
+ 0.3635827 1.5718788 1.0287207 0.4061089 0.3132051 0.5228324 0.3809705
+ 0.3165125 0.1984096 0.3153099 0.3009705 2.10803   0.2127875 0.6729694
+ 0.3832684 0.2869159 0.1673351 0.0855749 0.284749  0.4010487 0.3395288
+ 0.5471353 0.1784106 0.1688134 0.2870528 0.9600635 0.2023367 0.3747897
+ 0.6059375 0.7361918 0.4480691 0.4328971 0.2614328 0.5944191 0.5417775
+ 0.2527018 0.194659  0.4474397 0.2823366 2.0926224 0.3646555 1.5885416
+ 0.5746685 0.3442378 0.0767798 0.1154934 0.4261782 0.3160696 0.272184 ]</t>
+  </si>
+  <si>
+    <t>[0.3176386 0.360892  0.1318339 0.8837898 3.1362469 0.3587341 0.392979
+ 0.3353633 1.4869181 1.0886941 0.5086932 0.2704888 0.4806287 0.2988241
+ 0.2543756 0.1958963 0.1994185 0.2839774 1.8990289 0.135489  0.2409074
+ 0.2691299 0.2872986 0.0766249 0.0373416 0.2144088 0.365123  0.3700395
+ 0.3233348 0.1293605 0.0957037 0.2351771 1.3172721 0.1529466 0.2507271
+ 0.4785487 0.6502585 0.3018083 0.4043538 0.2031567 0.3462494 0.3766733
+ 0.2461033 0.1851636 0.3089445 0.2068762 1.6231848 0.1993055 0.432694
+ 0.519411  0.1886759 0.0480948 0.0827611 0.3020845 0.2052337 0.1982253
+ 0.8468376 0.285888  0.1220511 0.3310778 0.2544797 0.469536  0.706388
+ 0.6708709 0.3553407 1.8356129 0.1858992 0.20452   0.3913026 0.5683023
+ 0.2660941 0.1936772 0.263782  0.2463626 0.9455831 0.4774765 2.6501604
+ 0.5629523 0.2921279 0.0592432 0.0599753 0.1769605 0.4335902 0.118371 ]</t>
+  </si>
+  <si>
+    <t>[0.4145265 0.1921254 0.1331137 0.295497  1.0506508 0.1961231 0.3240004
+ 0.5424617 0.4581309 0.4219869 0.4073447 0.2675706 0.4157055 0.5438232
+ 0.3923835 0.263996  0.5477785 0.3230792 1.8517772 0.4437198 1.4991625
+ 0.4689951 0.4133227 0.1283026 0.1514194 0.3685087 0.2720935 0.3191188]</t>
+  </si>
+  <si>
+    <t>[0.3424085 0.1544587 0.0810534 0.2680101 1.5277169 0.1619907 0.3460171
+ 0.5439906 0.6208187 0.4127254 0.4088176 0.2139541 0.3329686 0.525091
+ 0.2928831 0.246302  0.3052151 0.2029634 1.7885432 0.2636292 0.518977
+ 0.373987  0.2573175 0.0827562 0.0862687 0.3883507 0.2274094 0.2501196
+ 0.8108792 0.2748017 0.0960818 0.3559798 0.3516441 0.4968088 0.5341537
+ 0.5586547 0.3804632 1.4433138 0.2233699 0.2795239 0.3550286 0.5236158
+ 0.2983749 0.1913279 0.2653086 0.2954943 0.7799974 0.5250544 2.6713205
+ 0.4654336 0.3248698 0.0938318 0.0992554 0.2770111 0.2809236 0.2061674]</t>
+  </si>
+  <si>
+    <t>[0.2831372 0.1576901 0.116624  0.329313  1.8809498 0.1442468 0.3759003
+ 0.5258476 0.6109857 0.4688026 0.4212735 0.1648797 0.2987285 0.5200093
+ 0.2605485 0.200423  0.2552736 0.1991687 2.02974   0.4605871 0.172567
+ 0.38643   0.2426105 0.0534889 0.0921211 0.3697833 0.2912426 0.1428011
+ 0.6474973 0.2750164 0.1007688 0.2874761 0.3118359 0.4749688 0.4785176
+ 0.5532882 0.392879  1.484631  0.228186  0.2809429 0.3195459 0.6847392
+ 0.2255495 0.1725905 0.2202985 0.2262394 0.8899847 0.5408015 0.3769548
+ 0.4051953 0.2024016 0.0783085 0.0761703 0.2530515 0.2011787 0.138781
+ 0.4670237 0.254758  0.0922725 0.5256623 0.2302538 0.388984  1.0602701
+ 0.7881471 1.0025881 1.1232626 0.1805299 0.1698045 0.3455502 0.260627
+ 0.312898  0.1389279 0.2082649 0.1900003 0.791223  0.5460157 4.806335
+ 0.6910643 0.309387  0.0517425 0.2235743 0.2672964 1.099038  0.1409821]</t>
+  </si>
+  <si>
+    <t>[0.5215104 0.189178  0.0995383 0.2861294 0.2741409 0.3560811 0.4155526
+ 0.3795321 0.2748861 0.8437078 0.2415074 0.260577  0.3136826 0.5217831
+ 0.3099278 0.223666  0.3571132 0.3036473 1.0973292 0.6753324 1.9358381
+ 0.4738779 0.3461645 0.1476476 0.1089151 0.3065347 0.2362781 0.2764316]</t>
+  </si>
+  <si>
+    <t>[0.5434147 0.2974146 0.1025493 0.3343677 0.3541739 0.3580069 0.3882098
+ 0.4247711 0.3404808 1.3198517 0.2219149 0.302353  0.3207899 0.6454246
+ 0.2561399 0.2012827 0.2490104 0.2360763 1.2370057 0.7793628 0.4915291
+ 0.4858583 0.2772568 0.0887996 0.0953061 0.2939189 0.232987  0.2359404
+ 0.4465734 0.2750878 0.1067632 0.5032897 0.2681492 0.3066405 0.9667867
+ 0.7801308 0.833295  1.1004015 0.1628357 0.1869707 0.3068865 0.3580132
+ 0.2467681 0.1702153 0.1914853 0.2258124 0.857866  0.5298682 3.634211
+ 0.68275   0.3078663 0.0577844 0.2225259 0.289822  0.7528358 0.1469937]</t>
+  </si>
+  <si>
+    <t>[0.6607511 0.3233655 0.1039749 0.3099135 0.3006324 0.292416  0.436951
+ 0.5742299 0.380623  1.0385257 0.2650547 0.235226  0.3316239 1.0873538
+ 0.2765852 0.2461107 0.1912868 0.2534897 1.3141124 1.1830944 0.2156777
+ 0.4174815 0.2321336 0.0985952 0.0594508 0.2779552 0.231577  0.1511834
+ 0.3885094 0.3136888 0.0810674 0.5447627 0.1891614 0.4312211 0.873394
+ 0.7687126 0.8493584 1.0440795 0.1874026 0.1858127 0.3994056 0.3013134
+ 0.2330673 0.1563751 0.110277  0.2080256 0.4521817 0.5308947 0.3236889
+ 0.5817031 0.1775516 0.0611988 0.2082918 0.2029989 0.8244262 0.0919931
+ 0.3021748 0.3653702 0.1428652 0.3530186 0.5748531 0.3674689 1.1891959
+ 0.5901229 0.3538368 0.5392921 0.3102542 0.4410245 0.2373835 0.4739126
+ 0.1869785 0.1198298 0.1396887 0.2318031 1.2031851 0.2798855 7.4876633
+ 0.4121343 0.1789761 0.0480155 0.0834005 0.3331778 1.3602628 0.0660471]</t>
+  </si>
+  <si>
+    <t>[1.235604  0.1753883 0.1093697 0.3140767 0.3288071 0.3094168 0.2789503
+ 0.4087083 0.3451481 0.237993  0.3158418 0.2978388 0.3864171 0.4101439
+ 0.2985717 0.2913112 0.5575901 0.8414049 1.2620496 0.3241536 2.6634074
+ 0.4722105 0.6007113 0.1123494 0.1152306 0.2243707 0.3114391 0.1605106]</t>
+  </si>
+  <si>
+    <t>[12.1349794  0.2352848  0.4718162  0.1860622  0.6654132  0.7196229
+  0.2332797  0.7649594  0.5026776  0.5250723  0.4050788  0.1427634
+  0.2474158  0.2180667  0.2668037  0.2197003  0.0737099  0.1237543
+  0.2948658  0.2293046  0.1580537  0.3609396  0.2905457  0.0557636
+  0.0683566  0.2188879  2.2768311  0.0764936  1.9050956  0.3392873
+  0.0436509  0.2722392  0.7948543  0.2236713  0.2883264  0.4958797
+  0.2850352  0.6093762  0.3074213  0.2244334  0.1510951  0.1530591
+  0.1543744  0.131062   0.1305629  0.1235299  0.5113137  0.1546187
+  0.1021384  0.2206448  0.5548633  0.0560353  0.043452   0.0832117
+  0.3372986  0.0583084  0.4206587  0.2742968  0.1109916  0.716469
+  1.3415608  0.1122086  0.3580144  0.4914969  0.7486063  0.3902395
+  0.5345161  0.2418433  0.2528428  0.2489451  0.2258176  0.1160943
+  0.2537206  0.1720778  1.1760795  0.1488506  0.1791636  0.2872978
+  0.2281178  0.0829915  0.0279696  0.1471786  0.2285678  0.0888046
+  0.6719419  0.4846896  0.0747101  0.3567789  0.3021772  0.4232473
+  1.0917612  0.4459441  0.3639048  2.0658915  0.3133778  0.323197
+  0.2119249  0.8956317  0.1427193  0.1499505  0.3422392  0.1971345
+  1.1982714  0.3780896  2.4857824  0.5254403  0.2104733  0.0369484
+  0.0430002  0.1822337  0.3248065  0.0915441]</t>
+  </si>
+  <si>
+    <t>[14.5135596  0.1731823  0.4297893  0.1691895  0.6497439  0.6814949
+  0.1996006  0.5777967  0.6135991  0.4329718  0.4522196  0.1215608
+  0.2842418  0.2554102  0.2374475  0.1573621  0.0878586  0.0769613
+  0.1913137  0.2074299  0.0827022  0.2958481  0.3884947  0.029957
+  0.0303903  0.114541   2.7103184  0.0508173  1.7398068  0.2764878
+  0.0548746  0.2200871  1.0115116  0.1552894  0.2939255  0.4154638
+  0.2575554  0.5076486  0.4368278  0.2029214  0.1777309  0.1500448
+  0.144473   0.0973947  0.1108789  0.1072739  0.4389785  0.1379557
+  0.0599195  0.1872473  0.463563   0.0366466  0.02136    0.1371549
+  0.5279279  0.0660105  0.2864132  0.2705137  0.1002861  0.4404734
+  1.3483627  0.121551   0.2525843  0.3789708  0.9137329  0.4777007
+  0.647861   0.1838964  0.1637646  0.1704854  0.2357226  0.136548
+  0.12988    0.1371265  0.8990585  0.0785779  0.0574551  0.190122
+  0.3130702  0.0469027  0.0396139  0.1165633  0.2005909  0.1276101
+  0.4256049  0.2624306  0.0759427  0.553271   3.3927297  0.3055249
+  0.3167081  0.3154298  0.8514896  1.6273452  0.2500381  0.1161003
+  0.2923399  0.2113429  0.0962786  0.0914485  0.1447692  0.1430922
+  1.0893068  0.0750448  0.2118026  0.2139439  0.091909   0.0363926
+  0.0239931  0.1018661  0.1555925  0.0632847  0.3529526  0.1125452
+  0.0677081  0.1755115  0.6615901  0.126126   0.2690175  0.4588699
+  0.4587345  0.3496124  0.2021496  0.165093   0.1452792  0.3633673
+  0.1185955  0.0985006  0.2323281  0.1349049  1.210299   0.128041
+  0.2908058  0.4263333  0.1252858  0.0379189  0.0221082  0.199287
+  0.215896   0.0837881  0.5450346  0.3411928  0.0646555  0.3613716
+  0.2384088  0.3155062  1.1443355  0.4794731  0.3439971  1.7883236
+  0.2334262  0.2469702  0.2194354  0.7357645  0.1958442  0.1510859
+  0.1624795  0.1404744  0.8600223  0.3051214  1.87717    0.3519747
+  0.1196259  0.0383359  0.0281619  0.1642323  0.2408251  0.0809296]</t>
+  </si>
+  <si>
+    <t>[7.3277779 0.134026  0.2565214 0.139834  0.4803231 0.6474569 0.1748384
+ 0.3921983 0.3724315 0.2333117 0.3021546 0.0776203 0.2308953 0.163072
+ 0.151235  0.1559497 0.0737118 0.0845567 0.2004656 0.1832722 0.0612361
+ 0.2025711 0.2152356 0.0390057 0.0543339 0.1142167 1.4555847 0.0711413
+ 1.2895826 0.1754938 0.0460898 0.1801281 0.6374705 0.160722  0.2064743
+ 0.2556718 0.2513975 0.3566133 0.310147  0.1877336 0.1547358 0.136337
+ 0.1044852 0.1054524 0.1002679 0.09845   0.2399587 0.1053314 0.1313747
+ 0.1420444 0.3121877 0.0667173 0.0299906 0.0455778 0.2003726 0.0435844
+ 0.444386  0.4680052 0.1634412 0.8376808 1.8026811 0.1492586 0.4721749
+ 0.539306  1.1992871 0.6013941 0.6454178 0.2454065 0.2642248 0.2475247
+ 0.3522876 0.1248573 0.234257  0.2257952 1.4903219 0.0825057 0.1594883
+ 0.2694074 0.3415602 0.1059434 0.0596334 0.2017155 0.2448285 0.1048395
+ 0.841753  0.5710918 0.0744974 0.4227343 0.3582821 0.5052834 1.3673983
+ 0.7252716 0.5022874 2.7197352 0.3077317 0.4000467 0.2341601 1.4216572
+ 0.1895654 0.1925957 0.3410893 0.2573441 1.2565283 0.3787264 3.3415057
+ 0.6849339 0.1933346 0.0434915 0.0201432 0.1754548 0.5371555 0.1130344
+ 8.1514752 0.1395488 0.3170284 0.1315323 0.3763477 0.4653428 0.2074862
+ 0.4112766 0.4492724 0.3647928 0.2508646 0.0953506 0.1804863 0.1892994
+ 0.1458733 0.1463728 0.0900242 0.094784  0.1930876 0.1576113 0.086206
+ 0.2236613 0.2107196 0.0366904 0.0433113 0.1243522 1.3366258 0.047644
+ 1.0557188 0.1622187 0.0391164 0.1671691 0.8959382 0.1832888 0.2684815
+ 0.2703257 0.2600578 0.4017035 0.2564982 0.2423179 0.176124  0.1166595
+ 0.1252566 0.115238  0.1233481 0.0815635 0.3059356 0.0774341 0.0550175
+ 0.1644636 0.2928379 0.0488677 0.0557741 0.0990918 0.2547787 0.0436245]</t>
   </si>
 </sst>
 </file>
@@ -865,16 +867,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.13</v>
+        <v>0.034</v>
       </c>
       <c r="C2" t="n">
-        <v>0.145</v>
+        <v>0.041</v>
       </c>
       <c r="D2" t="n">
-        <v>0.134</v>
+        <v>0.048</v>
       </c>
       <c r="E2" t="n">
-        <v>0.169</v>
+        <v>0.103</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -882,16 +884,16 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>0.141</v>
+        <v>0.028</v>
       </c>
       <c r="C3" t="n">
-        <v>0.14</v>
+        <v>0.034</v>
       </c>
       <c r="D3" t="n">
-        <v>0.136</v>
+        <v>0.041</v>
       </c>
       <c r="E3" t="n">
-        <v>0.165</v>
+        <v>0.093</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -899,16 +901,16 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>0.141</v>
+        <v>0.027</v>
       </c>
       <c r="C4" t="n">
-        <v>0.136</v>
+        <v>0.032</v>
       </c>
       <c r="D4" t="n">
-        <v>0.119</v>
+        <v>0.037</v>
       </c>
       <c r="E4" t="n">
-        <v>0.168</v>
+        <v>0.093</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -916,16 +918,16 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>0.145</v>
+        <v>0.027</v>
       </c>
       <c r="C5" t="n">
-        <v>0.125</v>
+        <v>0.038</v>
       </c>
       <c r="D5" t="n">
-        <v>0.148</v>
+        <v>0.047</v>
       </c>
       <c r="E5" t="n">
-        <v>0.151</v>
+        <v>0.092</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -933,16 +935,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.125</v>
+        <v>0.027</v>
       </c>
       <c r="C6" t="n">
-        <v>0.14</v>
+        <v>0.024</v>
       </c>
       <c r="D6" t="n">
-        <v>0.13</v>
+        <v>0.042</v>
       </c>
       <c r="E6" t="n">
-        <v>0.149</v>
+        <v>0.103</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -950,16 +952,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.159</v>
+        <v>0.066</v>
       </c>
       <c r="C7" t="n">
-        <v>0.184</v>
+        <v>0.056</v>
       </c>
       <c r="D7" t="n">
-        <v>0.191</v>
+        <v>0.064</v>
       </c>
       <c r="E7" t="n">
-        <v>0.185</v>
+        <v>0.082</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -967,16 +969,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.188</v>
+        <v>0.051</v>
       </c>
       <c r="C8" t="n">
-        <v>0.168</v>
+        <v>0.044</v>
       </c>
       <c r="D8" t="n">
-        <v>0.159</v>
+        <v>0.059</v>
       </c>
       <c r="E8" t="n">
-        <v>0.193</v>
+        <v>0.08500000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -984,16 +986,16 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>0.182</v>
+        <v>0.044</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2</v>
+        <v>0.058</v>
       </c>
       <c r="D9" t="n">
-        <v>0.17</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>0.181</v>
+        <v>0.06900000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1001,16 +1003,16 @@
         <v>6</v>
       </c>
       <c r="B10" t="n">
-        <v>0.154</v>
+        <v>0.049</v>
       </c>
       <c r="C10" t="n">
-        <v>0.155</v>
+        <v>0.062</v>
       </c>
       <c r="D10" t="n">
-        <v>0.169</v>
+        <v>0.068</v>
       </c>
       <c r="E10" t="n">
-        <v>0.191</v>
+        <v>0.076</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1018,16 +1020,16 @@
         <v>6</v>
       </c>
       <c r="B11" t="n">
-        <v>0.163</v>
+        <v>0.044</v>
       </c>
       <c r="C11" t="n">
-        <v>0.185</v>
+        <v>0.046</v>
       </c>
       <c r="D11" t="n">
-        <v>0.169</v>
+        <v>0.045</v>
       </c>
       <c r="E11" t="n">
-        <v>0.165</v>
+        <v>0.089</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1035,16 +1037,16 @@
         <v>7</v>
       </c>
       <c r="B12" t="n">
-        <v>0.137</v>
+        <v>0.045</v>
       </c>
       <c r="C12" t="n">
-        <v>0.153</v>
+        <v>0.048</v>
       </c>
       <c r="D12" t="n">
-        <v>0.167</v>
+        <v>0.057</v>
       </c>
       <c r="E12" t="n">
-        <v>0.177</v>
+        <v>0.057</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1052,16 +1054,16 @@
         <v>7</v>
       </c>
       <c r="B13" t="n">
-        <v>0.15</v>
+        <v>0.049</v>
       </c>
       <c r="C13" t="n">
-        <v>0.131</v>
+        <v>0.05</v>
       </c>
       <c r="D13" t="n">
-        <v>0.166</v>
+        <v>0.047</v>
       </c>
       <c r="E13" t="n">
-        <v>0.185</v>
+        <v>0.054</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1069,16 +1071,16 @@
         <v>7</v>
       </c>
       <c r="B14" t="n">
-        <v>0.14</v>
+        <v>0.054</v>
       </c>
       <c r="C14" t="n">
-        <v>0.15</v>
+        <v>0.058</v>
       </c>
       <c r="D14" t="n">
-        <v>0.166</v>
+        <v>0.054</v>
       </c>
       <c r="E14" t="n">
-        <v>0.173</v>
+        <v>0.068</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1086,16 +1088,16 @@
         <v>7</v>
       </c>
       <c r="B15" t="n">
-        <v>0.157</v>
+        <v>0.047</v>
       </c>
       <c r="C15" t="n">
-        <v>0.152</v>
+        <v>0.051</v>
       </c>
       <c r="D15" t="n">
-        <v>0.147</v>
+        <v>0.068</v>
       </c>
       <c r="E15" t="n">
-        <v>0.175</v>
+        <v>0.057</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1103,16 +1105,16 @@
         <v>7</v>
       </c>
       <c r="B16" t="n">
-        <v>0.157</v>
+        <v>0.049</v>
       </c>
       <c r="C16" t="n">
-        <v>0.132</v>
+        <v>0.05</v>
       </c>
       <c r="D16" t="n">
-        <v>0.155</v>
+        <v>0.063</v>
       </c>
       <c r="E16" t="n">
-        <v>0.175</v>
+        <v>0.048</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1120,16 +1122,16 @@
         <v>8</v>
       </c>
       <c r="B17" t="n">
-        <v>0.178</v>
+        <v>0.082</v>
       </c>
       <c r="C17" t="n">
-        <v>0.147</v>
+        <v>0.103</v>
       </c>
       <c r="D17" t="n">
-        <v>0.185</v>
+        <v>0.1</v>
       </c>
       <c r="E17" t="n">
-        <v>0.122</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1137,16 +1139,16 @@
         <v>8</v>
       </c>
       <c r="B18" t="n">
-        <v>0.158</v>
+        <v>0.1</v>
       </c>
       <c r="C18" t="n">
-        <v>0.193</v>
+        <v>0.099</v>
       </c>
       <c r="D18" t="n">
-        <v>0.176</v>
+        <v>0.089</v>
       </c>
       <c r="E18" t="n">
-        <v>0.118</v>
+        <v>0.043</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1154,16 +1156,16 @@
         <v>8</v>
       </c>
       <c r="B19" t="n">
-        <v>0.208</v>
+        <v>0.094</v>
       </c>
       <c r="C19" t="n">
-        <v>0.152</v>
+        <v>0.09</v>
       </c>
       <c r="D19" t="n">
-        <v>0.192</v>
+        <v>0.094</v>
       </c>
       <c r="E19" t="n">
-        <v>0.137</v>
+        <v>0.056</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1171,16 +1173,16 @@
         <v>8</v>
       </c>
       <c r="B20" t="n">
-        <v>0.153</v>
+        <v>0.076</v>
       </c>
       <c r="C20" t="n">
-        <v>0.196</v>
+        <v>0.092</v>
       </c>
       <c r="D20" t="n">
-        <v>0.171</v>
+        <v>0.103</v>
       </c>
       <c r="E20" t="n">
-        <v>0.124</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1188,16 +1190,16 @@
         <v>8</v>
       </c>
       <c r="B21" t="n">
-        <v>0.185</v>
+        <v>0.078</v>
       </c>
       <c r="C21" t="n">
-        <v>0.14</v>
+        <v>0.093</v>
       </c>
       <c r="D21" t="n">
-        <v>0.16</v>
+        <v>0.103</v>
       </c>
       <c r="E21" t="n">
-        <v>0.134</v>
+        <v>0.034</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1205,16 +1207,16 @@
         <v>9</v>
       </c>
       <c r="B22" t="n">
-        <v>0.189</v>
+        <v>0.11</v>
       </c>
       <c r="C22" t="n">
-        <v>0.17</v>
+        <v>0.098</v>
       </c>
       <c r="D22" t="n">
-        <v>0.205</v>
+        <v>0.106</v>
       </c>
       <c r="E22" t="n">
-        <v>0.224</v>
+        <v>0.149</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1222,16 +1224,16 @@
         <v>9</v>
       </c>
       <c r="B23" t="n">
-        <v>0.229</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="C23" t="n">
-        <v>0.129</v>
+        <v>0.097</v>
       </c>
       <c r="D23" t="n">
-        <v>0.227</v>
+        <v>0.094</v>
       </c>
       <c r="E23" t="n">
-        <v>0.212</v>
+        <v>0.169</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1239,16 +1241,16 @@
         <v>9</v>
       </c>
       <c r="B24" t="n">
-        <v>0.198</v>
+        <v>0.1</v>
       </c>
       <c r="C24" t="n">
-        <v>0.2</v>
+        <v>0.107</v>
       </c>
       <c r="D24" t="n">
-        <v>0.216</v>
+        <v>0.118</v>
       </c>
       <c r="E24" t="n">
-        <v>0.243</v>
+        <v>0.123</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1256,16 +1258,16 @@
         <v>9</v>
       </c>
       <c r="B25" t="n">
-        <v>0.181</v>
+        <v>0.094</v>
       </c>
       <c r="C25" t="n">
-        <v>0.183</v>
+        <v>0.103</v>
       </c>
       <c r="D25" t="n">
-        <v>0.245</v>
+        <v>0.095</v>
       </c>
       <c r="E25" t="n">
-        <v>0.229</v>
+        <v>0.156</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1273,16 +1275,16 @@
         <v>9</v>
       </c>
       <c r="B26" t="n">
-        <v>0.187</v>
+        <v>0.103</v>
       </c>
       <c r="C26" t="n">
-        <v>0.181</v>
+        <v>0.09</v>
       </c>
       <c r="D26" t="n">
-        <v>0.226</v>
+        <v>0.112</v>
       </c>
       <c r="E26" t="n">
-        <v>0.236</v>
+        <v>0.127</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1290,16 +1292,16 @@
         <v>10</v>
       </c>
       <c r="B27" t="n">
-        <v>0.283</v>
+        <v>0.097</v>
       </c>
       <c r="C27" t="n">
-        <v>0.284</v>
+        <v>0.091</v>
       </c>
       <c r="D27" t="n">
-        <v>0.302</v>
+        <v>0.113</v>
       </c>
       <c r="E27" t="n">
-        <v>0.322</v>
+        <v>0.131</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1307,16 +1309,16 @@
         <v>10</v>
       </c>
       <c r="B28" t="n">
-        <v>0.263</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="C28" t="n">
-        <v>0.3</v>
+        <v>0.098</v>
       </c>
       <c r="D28" t="n">
-        <v>0.288</v>
+        <v>0.092</v>
       </c>
       <c r="E28" t="n">
-        <v>0.321</v>
+        <v>0.141</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1324,16 +1326,16 @@
         <v>10</v>
       </c>
       <c r="B29" t="n">
-        <v>0.299</v>
+        <v>0.105</v>
       </c>
       <c r="C29" t="n">
-        <v>0.263</v>
+        <v>0.115</v>
       </c>
       <c r="D29" t="n">
-        <v>0.282</v>
+        <v>0.098</v>
       </c>
       <c r="E29" t="n">
-        <v>0.307</v>
+        <v>0.153</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1341,16 +1343,16 @@
         <v>10</v>
       </c>
       <c r="B30" t="n">
-        <v>0.297</v>
+        <v>0.132</v>
       </c>
       <c r="C30" t="n">
-        <v>0.301</v>
+        <v>0.1</v>
       </c>
       <c r="D30" t="n">
-        <v>0.291</v>
+        <v>0.104</v>
       </c>
       <c r="E30" t="n">
-        <v>0.295</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1358,16 +1360,16 @@
         <v>10</v>
       </c>
       <c r="B31" t="n">
-        <v>0.269</v>
+        <v>0.107</v>
       </c>
       <c r="C31" t="n">
-        <v>0.3</v>
+        <v>0.111</v>
       </c>
       <c r="D31" t="n">
-        <v>0.326</v>
+        <v>0.098</v>
       </c>
       <c r="E31" t="n">
-        <v>0.33</v>
+        <v>0.154</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1375,16 +1377,16 @@
         <v>11</v>
       </c>
       <c r="B32" t="n">
-        <v>0.17</v>
+        <v>0.082</v>
       </c>
       <c r="C32" t="n">
-        <v>0.21</v>
+        <v>0.064</v>
       </c>
       <c r="D32" t="n">
-        <v>0.199</v>
+        <v>0.058</v>
       </c>
       <c r="E32" t="n">
-        <v>0.227</v>
+        <v>0.102</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1392,16 +1394,16 @@
         <v>11</v>
       </c>
       <c r="B33" t="n">
-        <v>0.176</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="C33" t="n">
-        <v>0.205</v>
+        <v>0.108</v>
       </c>
       <c r="D33" t="n">
-        <v>0.205</v>
+        <v>0.081</v>
       </c>
       <c r="E33" t="n">
-        <v>0.24</v>
+        <v>0.081</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1409,16 +1411,16 @@
         <v>11</v>
       </c>
       <c r="B34" t="n">
-        <v>0.197</v>
+        <v>0.098</v>
       </c>
       <c r="C34" t="n">
-        <v>0.196</v>
+        <v>0.092</v>
       </c>
       <c r="D34" t="n">
-        <v>0.23</v>
+        <v>0.076</v>
       </c>
       <c r="E34" t="n">
-        <v>0.245</v>
+        <v>0.118</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1426,16 +1428,16 @@
         <v>11</v>
       </c>
       <c r="B35" t="n">
-        <v>0.191</v>
+        <v>0.083</v>
       </c>
       <c r="C35" t="n">
-        <v>0.18</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="D35" t="n">
-        <v>0.176</v>
+        <v>0.077</v>
       </c>
       <c r="E35" t="n">
-        <v>0.247</v>
+        <v>0.089</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1443,16 +1445,16 @@
         <v>11</v>
       </c>
       <c r="B36" t="n">
-        <v>0.201</v>
+        <v>0.081</v>
       </c>
       <c r="C36" t="n">
-        <v>0.172</v>
+        <v>0.101</v>
       </c>
       <c r="D36" t="n">
-        <v>0.186</v>
+        <v>0.083</v>
       </c>
       <c r="E36" t="n">
-        <v>0.223</v>
+        <v>0.109</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1460,16 +1462,16 @@
         <v>12</v>
       </c>
       <c r="B37" t="n">
-        <v>0.316</v>
+        <v>0.101</v>
       </c>
       <c r="C37" t="n">
-        <v>0.295</v>
+        <v>0.105</v>
       </c>
       <c r="D37" t="n">
-        <v>0.276</v>
+        <v>0.094</v>
       </c>
       <c r="E37" t="n">
-        <v>0.367</v>
+        <v>0.119</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1477,16 +1479,16 @@
         <v>12</v>
       </c>
       <c r="B38" t="n">
-        <v>0.282</v>
+        <v>0.096</v>
       </c>
       <c r="C38" t="n">
-        <v>0.303</v>
+        <v>0.096</v>
       </c>
       <c r="D38" t="n">
-        <v>0.294</v>
+        <v>0.097</v>
       </c>
       <c r="E38" t="n">
-        <v>0.378</v>
+        <v>0.116</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1494,16 +1496,16 @@
         <v>12</v>
       </c>
       <c r="B39" t="n">
-        <v>0.29</v>
+        <v>0.099</v>
       </c>
       <c r="C39" t="n">
-        <v>0.276</v>
+        <v>0.09</v>
       </c>
       <c r="D39" t="n">
-        <v>0.296</v>
+        <v>0.105</v>
       </c>
       <c r="E39" t="n">
-        <v>0.383</v>
+        <v>0.151</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1511,16 +1513,16 @@
         <v>12</v>
       </c>
       <c r="B40" t="n">
-        <v>0.291</v>
+        <v>0.106</v>
       </c>
       <c r="C40" t="n">
-        <v>0.285</v>
+        <v>0.105</v>
       </c>
       <c r="D40" t="n">
-        <v>0.314</v>
+        <v>0.097</v>
       </c>
       <c r="E40" t="n">
-        <v>0.39</v>
+        <v>0.131</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1528,16 +1530,16 @@
         <v>12</v>
       </c>
       <c r="B41" t="n">
-        <v>0.296</v>
+        <v>0.097</v>
       </c>
       <c r="C41" t="n">
-        <v>0.321</v>
+        <v>0.129</v>
       </c>
       <c r="D41" t="n">
-        <v>0.327</v>
+        <v>0.11</v>
       </c>
       <c r="E41" t="n">
-        <v>0.373</v>
+        <v>0.139</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1545,16 +1547,16 @@
         <v>13</v>
       </c>
       <c r="B42" t="n">
-        <v>0.315</v>
+        <v>0.092</v>
       </c>
       <c r="C42" t="n">
-        <v>0.263</v>
+        <v>0.102</v>
       </c>
       <c r="D42" t="n">
-        <v>0.343</v>
+        <v>0.095</v>
       </c>
       <c r="E42" t="n">
-        <v>0.338</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1562,16 +1564,16 @@
         <v>13</v>
       </c>
       <c r="B43" t="n">
-        <v>0.246</v>
+        <v>0.108</v>
       </c>
       <c r="C43" t="n">
-        <v>0.264</v>
+        <v>0.096</v>
       </c>
       <c r="D43" t="n">
-        <v>0.325</v>
+        <v>0.099</v>
       </c>
       <c r="E43" t="n">
-        <v>0.318</v>
+        <v>0.148</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1579,16 +1581,16 @@
         <v>13</v>
       </c>
       <c r="B44" t="n">
-        <v>0.297</v>
+        <v>0.098</v>
       </c>
       <c r="C44" t="n">
-        <v>0.321</v>
+        <v>0.067</v>
       </c>
       <c r="D44" t="n">
-        <v>0.328</v>
+        <v>0.103</v>
       </c>
       <c r="E44" t="n">
-        <v>0.32</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1596,16 +1598,16 @@
         <v>13</v>
       </c>
       <c r="B45" t="n">
-        <v>0.308</v>
+        <v>0.108</v>
       </c>
       <c r="C45" t="n">
-        <v>0.306</v>
+        <v>0.098</v>
       </c>
       <c r="D45" t="n">
-        <v>0.267</v>
+        <v>0.098</v>
       </c>
       <c r="E45" t="n">
-        <v>0.325</v>
+        <v>0.131</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1613,16 +1615,16 @@
         <v>13</v>
       </c>
       <c r="B46" t="n">
-        <v>0.28</v>
+        <v>0.092</v>
       </c>
       <c r="C46" t="n">
-        <v>0.283</v>
+        <v>0.091</v>
       </c>
       <c r="D46" t="n">
-        <v>0.33</v>
+        <v>0.092</v>
       </c>
       <c r="E46" t="n">
-        <v>0.394</v>
+        <v>0.117</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1630,16 +1632,16 @@
         <v>14</v>
       </c>
       <c r="B47" t="n">
-        <v>0.358</v>
+        <v>0.119</v>
       </c>
       <c r="C47" t="n">
-        <v>0.389</v>
+        <v>0.165</v>
       </c>
       <c r="D47" t="n">
-        <v>0.391</v>
+        <v>0.169</v>
       </c>
       <c r="E47" t="n">
-        <v>0.397</v>
+        <v>0.194</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1647,16 +1649,16 @@
         <v>14</v>
       </c>
       <c r="B48" t="n">
-        <v>0.389</v>
+        <v>0.138</v>
       </c>
       <c r="C48" t="n">
-        <v>0.41</v>
+        <v>0.13</v>
       </c>
       <c r="D48" t="n">
-        <v>0.423</v>
+        <v>0.185</v>
       </c>
       <c r="E48" t="n">
-        <v>0.433</v>
+        <v>0.183</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1664,16 +1666,16 @@
         <v>14</v>
       </c>
       <c r="B49" t="n">
-        <v>0.359</v>
+        <v>0.133</v>
       </c>
       <c r="C49" t="n">
-        <v>0.425</v>
+        <v>0.139</v>
       </c>
       <c r="D49" t="n">
-        <v>0.388</v>
+        <v>0.195</v>
       </c>
       <c r="E49" t="n">
-        <v>0.418</v>
+        <v>0.211</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1681,16 +1683,16 @@
         <v>14</v>
       </c>
       <c r="B50" t="n">
-        <v>0.354</v>
+        <v>0.145</v>
       </c>
       <c r="C50" t="n">
-        <v>0.429</v>
+        <v>0.136</v>
       </c>
       <c r="D50" t="n">
-        <v>0.395</v>
+        <v>0.209</v>
       </c>
       <c r="E50" t="n">
-        <v>0.411</v>
+        <v>0.185</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1698,16 +1700,16 @@
         <v>14</v>
       </c>
       <c r="B51" t="n">
-        <v>0.375</v>
+        <v>0.135</v>
       </c>
       <c r="C51" t="n">
-        <v>0.397</v>
+        <v>0.142</v>
       </c>
       <c r="D51" t="n">
-        <v>0.44</v>
+        <v>0.175</v>
       </c>
       <c r="E51" t="n">
-        <v>0.41</v>
+        <v>0.188</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1715,16 +1717,16 @@
         <v>15</v>
       </c>
       <c r="B52" t="n">
-        <v>0.302</v>
+        <v>0.118</v>
       </c>
       <c r="C52" t="n">
-        <v>0.294</v>
+        <v>0.106</v>
       </c>
       <c r="D52" t="n">
-        <v>0.382</v>
+        <v>0.173</v>
       </c>
       <c r="E52" t="n">
-        <v>0.397</v>
+        <v>0.129</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1732,16 +1734,16 @@
         <v>15</v>
       </c>
       <c r="B53" t="n">
-        <v>0.354</v>
+        <v>0.1</v>
       </c>
       <c r="C53" t="n">
-        <v>0.342</v>
+        <v>0.093</v>
       </c>
       <c r="D53" t="n">
-        <v>0.412</v>
+        <v>0.161</v>
       </c>
       <c r="E53" t="n">
-        <v>0.396</v>
+        <v>0.129</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1749,16 +1751,16 @@
         <v>15</v>
       </c>
       <c r="B54" t="n">
-        <v>0.312</v>
+        <v>0.106</v>
       </c>
       <c r="C54" t="n">
-        <v>0.305</v>
+        <v>0.117</v>
       </c>
       <c r="D54" t="n">
-        <v>0.352</v>
+        <v>0.136</v>
       </c>
       <c r="E54" t="n">
-        <v>0.389</v>
+        <v>0.121</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1766,16 +1768,16 @@
         <v>15</v>
       </c>
       <c r="B55" t="n">
-        <v>0.304</v>
+        <v>0.113</v>
       </c>
       <c r="C55" t="n">
-        <v>0.334</v>
+        <v>0.107</v>
       </c>
       <c r="D55" t="n">
-        <v>0.391</v>
+        <v>0.143</v>
       </c>
       <c r="E55" t="n">
-        <v>0.403</v>
+        <v>0.134</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1783,16 +1785,16 @@
         <v>15</v>
       </c>
       <c r="B56" t="n">
-        <v>0.301</v>
+        <v>0.116</v>
       </c>
       <c r="C56" t="n">
-        <v>0.362</v>
+        <v>0.124</v>
       </c>
       <c r="D56" t="n">
-        <v>0.36</v>
+        <v>0.169</v>
       </c>
       <c r="E56" t="n">
-        <v>0.418</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1800,16 +1802,16 @@
         <v>16</v>
       </c>
       <c r="B57" t="n">
-        <v>0.349</v>
+        <v>0.158</v>
       </c>
       <c r="C57" t="n">
-        <v>0.373</v>
+        <v>0.165</v>
       </c>
       <c r="D57" t="n">
-        <v>0.386</v>
+        <v>0.188</v>
       </c>
       <c r="E57" t="n">
-        <v>0.391</v>
+        <v>0.248</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1817,16 +1819,16 @@
         <v>16</v>
       </c>
       <c r="B58" t="n">
-        <v>0.329</v>
+        <v>0.16</v>
       </c>
       <c r="C58" t="n">
-        <v>0.391</v>
+        <v>0.168</v>
       </c>
       <c r="D58" t="n">
-        <v>0.408</v>
+        <v>0.172</v>
       </c>
       <c r="E58" t="n">
-        <v>0.363</v>
+        <v>0.223</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1834,16 +1836,16 @@
         <v>16</v>
       </c>
       <c r="B59" t="n">
-        <v>0.391</v>
+        <v>0.186</v>
       </c>
       <c r="C59" t="n">
-        <v>0.35</v>
+        <v>0.158</v>
       </c>
       <c r="D59" t="n">
-        <v>0.372</v>
+        <v>0.212</v>
       </c>
       <c r="E59" t="n">
-        <v>0.378</v>
+        <v>0.218</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1851,16 +1853,16 @@
         <v>16</v>
       </c>
       <c r="B60" t="n">
-        <v>0.349</v>
+        <v>0.185</v>
       </c>
       <c r="C60" t="n">
-        <v>0.347</v>
+        <v>0.183</v>
       </c>
       <c r="D60" t="n">
-        <v>0.388</v>
+        <v>0.184</v>
       </c>
       <c r="E60" t="n">
-        <v>0.389</v>
+        <v>0.242</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1868,16 +1870,16 @@
         <v>16</v>
       </c>
       <c r="B61" t="n">
-        <v>0.362</v>
+        <v>0.15</v>
       </c>
       <c r="C61" t="n">
-        <v>0.364</v>
+        <v>0.158</v>
       </c>
       <c r="D61" t="n">
-        <v>0.379</v>
+        <v>0.213</v>
       </c>
       <c r="E61" t="n">
-        <v>0.392</v>
+        <v>0.239</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1885,16 +1887,16 @@
         <v>17</v>
       </c>
       <c r="B62" t="n">
-        <v>0.186</v>
+        <v>0.055</v>
       </c>
       <c r="C62" t="n">
-        <v>0.156</v>
+        <v>0.055</v>
       </c>
       <c r="D62" t="n">
-        <v>0.219</v>
+        <v>0.093</v>
       </c>
       <c r="E62" t="n">
-        <v>0.268</v>
+        <v>0.121</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1902,16 +1904,16 @@
         <v>17</v>
       </c>
       <c r="B63" t="n">
-        <v>0.179</v>
+        <v>0.056</v>
       </c>
       <c r="C63" t="n">
-        <v>0.212</v>
+        <v>0.044</v>
       </c>
       <c r="D63" t="n">
-        <v>0.246</v>
+        <v>0.097</v>
       </c>
       <c r="E63" t="n">
-        <v>0.291</v>
+        <v>0.134</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1919,16 +1921,16 @@
         <v>17</v>
       </c>
       <c r="B64" t="n">
-        <v>0.177</v>
+        <v>0.066</v>
       </c>
       <c r="C64" t="n">
-        <v>0.156</v>
+        <v>0.056</v>
       </c>
       <c r="D64" t="n">
-        <v>0.234</v>
+        <v>0.079</v>
       </c>
       <c r="E64" t="n">
-        <v>0.284</v>
+        <v>0.113</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1936,16 +1938,16 @@
         <v>17</v>
       </c>
       <c r="B65" t="n">
-        <v>0.194</v>
+        <v>0.051</v>
       </c>
       <c r="C65" t="n">
-        <v>0.17</v>
+        <v>0.059</v>
       </c>
       <c r="D65" t="n">
-        <v>0.24</v>
+        <v>0.089</v>
       </c>
       <c r="E65" t="n">
-        <v>0.261</v>
+        <v>0.117</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1953,16 +1955,16 @@
         <v>17</v>
       </c>
       <c r="B66" t="n">
-        <v>0.188</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="C66" t="n">
-        <v>0.181</v>
+        <v>0.061</v>
       </c>
       <c r="D66" t="n">
-        <v>0.235</v>
+        <v>0.091</v>
       </c>
       <c r="E66" t="n">
-        <v>0.271</v>
+        <v>0.143</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1970,16 +1972,16 @@
         <v>18</v>
       </c>
       <c r="B67" t="n">
-        <v>0.264</v>
+        <v>0.143</v>
       </c>
       <c r="C67" t="n">
-        <v>0.289</v>
+        <v>0.12</v>
       </c>
       <c r="D67" t="n">
-        <v>0.276</v>
+        <v>0.168</v>
       </c>
       <c r="E67" t="n">
-        <v>0.249</v>
+        <v>0.179</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1987,16 +1989,16 @@
         <v>18</v>
       </c>
       <c r="B68" t="n">
-        <v>0.282</v>
+        <v>0.132</v>
       </c>
       <c r="C68" t="n">
-        <v>0.28</v>
+        <v>0.141</v>
       </c>
       <c r="D68" t="n">
-        <v>0.256</v>
+        <v>0.132</v>
       </c>
       <c r="E68" t="n">
-        <v>0.232</v>
+        <v>0.135</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2004,16 +2006,16 @@
         <v>18</v>
       </c>
       <c r="B69" t="n">
-        <v>0.261</v>
+        <v>0.152</v>
       </c>
       <c r="C69" t="n">
-        <v>0.249</v>
+        <v>0.135</v>
       </c>
       <c r="D69" t="n">
-        <v>0.254</v>
+        <v>0.155</v>
       </c>
       <c r="E69" t="n">
-        <v>0.256</v>
+        <v>0.173</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2021,16 +2023,16 @@
         <v>18</v>
       </c>
       <c r="B70" t="n">
-        <v>0.274</v>
+        <v>0.136</v>
       </c>
       <c r="C70" t="n">
-        <v>0.249</v>
+        <v>0.12</v>
       </c>
       <c r="D70" t="n">
-        <v>0.288</v>
+        <v>0.158</v>
       </c>
       <c r="E70" t="n">
-        <v>0.222</v>
+        <v>0.156</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2038,16 +2040,16 @@
         <v>18</v>
       </c>
       <c r="B71" t="n">
-        <v>0.269</v>
+        <v>0.147</v>
       </c>
       <c r="C71" t="n">
-        <v>0.267</v>
+        <v>0.129</v>
       </c>
       <c r="D71" t="n">
-        <v>0.28</v>
+        <v>0.145</v>
       </c>
       <c r="E71" t="n">
-        <v>0.234</v>
+        <v>0.181</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2055,16 +2057,16 @@
         <v>19</v>
       </c>
       <c r="B72" t="n">
-        <v>0.255</v>
+        <v>0.163</v>
       </c>
       <c r="C72" t="n">
-        <v>0.273</v>
+        <v>0.175</v>
       </c>
       <c r="D72" t="n">
-        <v>0.253</v>
+        <v>0.187</v>
       </c>
       <c r="E72" t="n">
-        <v>0.233</v>
+        <v>0.173</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2072,16 +2074,16 @@
         <v>19</v>
       </c>
       <c r="B73" t="n">
-        <v>0.252</v>
+        <v>0.156</v>
       </c>
       <c r="C73" t="n">
-        <v>0.238</v>
+        <v>0.148</v>
       </c>
       <c r="D73" t="n">
-        <v>0.234</v>
+        <v>0.186</v>
       </c>
       <c r="E73" t="n">
-        <v>0.22</v>
+        <v>0.195</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2089,16 +2091,16 @@
         <v>19</v>
       </c>
       <c r="B74" t="n">
-        <v>0.225</v>
+        <v>0.148</v>
       </c>
       <c r="C74" t="n">
-        <v>0.266</v>
+        <v>0.138</v>
       </c>
       <c r="D74" t="n">
-        <v>0.274</v>
+        <v>0.175</v>
       </c>
       <c r="E74" t="n">
-        <v>0.233</v>
+        <v>0.189</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2106,16 +2108,16 @@
         <v>19</v>
       </c>
       <c r="B75" t="n">
-        <v>0.256</v>
+        <v>0.179</v>
       </c>
       <c r="C75" t="n">
-        <v>0.253</v>
+        <v>0.182</v>
       </c>
       <c r="D75" t="n">
-        <v>0.286</v>
+        <v>0.163</v>
       </c>
       <c r="E75" t="n">
-        <v>0.213</v>
+        <v>0.187</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2123,16 +2125,16 @@
         <v>19</v>
       </c>
       <c r="B76" t="n">
-        <v>0.251</v>
+        <v>0.162</v>
       </c>
       <c r="C76" t="n">
-        <v>0.244</v>
+        <v>0.162</v>
       </c>
       <c r="D76" t="n">
-        <v>0.27</v>
+        <v>0.152</v>
       </c>
       <c r="E76" t="n">
-        <v>0.23</v>
+        <v>0.221</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2140,16 +2142,16 @@
         <v>20</v>
       </c>
       <c r="B77" t="n">
-        <v>0.289</v>
+        <v>0.205</v>
       </c>
       <c r="C77" t="n">
-        <v>0.235</v>
+        <v>0.199</v>
       </c>
       <c r="D77" t="n">
-        <v>0.251</v>
+        <v>0.176</v>
       </c>
       <c r="E77" t="n">
-        <v>0.175</v>
+        <v>0.133</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2157,16 +2159,16 @@
         <v>20</v>
       </c>
       <c r="B78" t="n">
-        <v>0.295</v>
+        <v>0.231</v>
       </c>
       <c r="C78" t="n">
-        <v>0.248</v>
+        <v>0.191</v>
       </c>
       <c r="D78" t="n">
-        <v>0.249</v>
+        <v>0.189</v>
       </c>
       <c r="E78" t="n">
-        <v>0.191</v>
+        <v>0.139</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2174,16 +2176,16 @@
         <v>20</v>
       </c>
       <c r="B79" t="n">
-        <v>0.26</v>
+        <v>0.198</v>
       </c>
       <c r="C79" t="n">
-        <v>0.251</v>
+        <v>0.162</v>
       </c>
       <c r="D79" t="n">
-        <v>0.249</v>
+        <v>0.188</v>
       </c>
       <c r="E79" t="n">
-        <v>0.166</v>
+        <v>0.154</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2191,16 +2193,16 @@
         <v>20</v>
       </c>
       <c r="B80" t="n">
-        <v>0.256</v>
+        <v>0.186</v>
       </c>
       <c r="C80" t="n">
-        <v>0.249</v>
+        <v>0.188</v>
       </c>
       <c r="D80" t="n">
-        <v>0.266</v>
+        <v>0.185</v>
       </c>
       <c r="E80" t="n">
-        <v>0.179</v>
+        <v>0.128</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2208,16 +2210,16 @@
         <v>20</v>
       </c>
       <c r="B81" t="n">
-        <v>0.273</v>
+        <v>0.197</v>
       </c>
       <c r="C81" t="n">
-        <v>0.257</v>
+        <v>0.206</v>
       </c>
       <c r="D81" t="n">
-        <v>0.256</v>
+        <v>0.177</v>
       </c>
       <c r="E81" t="n">
-        <v>0.173</v>
+        <v>0.127</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2225,16 +2227,16 @@
         <v>21</v>
       </c>
       <c r="B82" t="n">
-        <v>0.255</v>
+        <v>0.188</v>
       </c>
       <c r="C82" t="n">
-        <v>0.267</v>
+        <v>0.229</v>
       </c>
       <c r="D82" t="n">
-        <v>0.24</v>
+        <v>0.18</v>
       </c>
       <c r="E82" t="n">
-        <v>0.198</v>
+        <v>0.157</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2242,16 +2244,16 @@
         <v>21</v>
       </c>
       <c r="B83" t="n">
-        <v>0.264</v>
+        <v>0.176</v>
       </c>
       <c r="C83" t="n">
-        <v>0.263</v>
+        <v>0.191</v>
       </c>
       <c r="D83" t="n">
-        <v>0.203</v>
+        <v>0.172</v>
       </c>
       <c r="E83" t="n">
-        <v>0.197</v>
+        <v>0.146</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2259,16 +2261,16 @@
         <v>21</v>
       </c>
       <c r="B84" t="n">
-        <v>0.255</v>
+        <v>0.167</v>
       </c>
       <c r="C84" t="n">
-        <v>0.244</v>
+        <v>0.191</v>
       </c>
       <c r="D84" t="n">
-        <v>0.21</v>
+        <v>0.167</v>
       </c>
       <c r="E84" t="n">
-        <v>0.206</v>
+        <v>0.144</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2276,16 +2278,16 @@
         <v>21</v>
       </c>
       <c r="B85" t="n">
-        <v>0.265</v>
+        <v>0.171</v>
       </c>
       <c r="C85" t="n">
-        <v>0.226</v>
+        <v>0.19</v>
       </c>
       <c r="D85" t="n">
-        <v>0.223</v>
+        <v>0.171</v>
       </c>
       <c r="E85" t="n">
-        <v>0.189</v>
+        <v>0.151</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2293,16 +2295,16 @@
         <v>21</v>
       </c>
       <c r="B86" t="n">
-        <v>0.269</v>
+        <v>0.178</v>
       </c>
       <c r="C86" t="n">
-        <v>0.26</v>
+        <v>0.171</v>
       </c>
       <c r="D86" t="n">
-        <v>0.262</v>
+        <v>0.2</v>
       </c>
       <c r="E86" t="n">
-        <v>0.206</v>
+        <v>0.168</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2310,16 +2312,16 @@
         <v>22</v>
       </c>
       <c r="B87" t="n">
-        <v>0.277</v>
+        <v>0.188</v>
       </c>
       <c r="C87" t="n">
-        <v>0.307</v>
+        <v>0.121</v>
       </c>
       <c r="D87" t="n">
-        <v>0.311</v>
+        <v>0.137</v>
       </c>
       <c r="E87" t="n">
-        <v>0.276</v>
+        <v>0.206</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2327,16 +2329,16 @@
         <v>22</v>
       </c>
       <c r="B88" t="n">
-        <v>0.253</v>
+        <v>0.174</v>
       </c>
       <c r="C88" t="n">
-        <v>0.306</v>
+        <v>0.178</v>
       </c>
       <c r="D88" t="n">
-        <v>0.282</v>
+        <v>0.155</v>
       </c>
       <c r="E88" t="n">
-        <v>0.227</v>
+        <v>0.219</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2344,16 +2346,16 @@
         <v>22</v>
       </c>
       <c r="B89" t="n">
-        <v>0.271</v>
+        <v>0.185</v>
       </c>
       <c r="C89" t="n">
-        <v>0.284</v>
+        <v>0.176</v>
       </c>
       <c r="D89" t="n">
-        <v>0.297</v>
+        <v>0.19</v>
       </c>
       <c r="E89" t="n">
-        <v>0.282</v>
+        <v>0.206</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2361,16 +2363,16 @@
         <v>22</v>
       </c>
       <c r="B90" t="n">
-        <v>0.273</v>
+        <v>0.181</v>
       </c>
       <c r="C90" t="n">
-        <v>0.274</v>
+        <v>0.18</v>
       </c>
       <c r="D90" t="n">
-        <v>0.294</v>
+        <v>0.168</v>
       </c>
       <c r="E90" t="n">
-        <v>0.26</v>
+        <v>0.224</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2378,16 +2380,16 @@
         <v>22</v>
       </c>
       <c r="B91" t="n">
-        <v>0.282</v>
+        <v>0.15</v>
       </c>
       <c r="C91" t="n">
-        <v>0.325</v>
+        <v>0.16</v>
       </c>
       <c r="D91" t="n">
-        <v>0.293</v>
+        <v>0.214</v>
       </c>
       <c r="E91" t="n">
-        <v>0.237</v>
+        <v>0.204</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2395,16 +2397,16 @@
         <v>23</v>
       </c>
       <c r="B92" t="n">
-        <v>0.243</v>
+        <v>0.208</v>
       </c>
       <c r="C92" t="n">
-        <v>0.221</v>
+        <v>0.194</v>
       </c>
       <c r="D92" t="n">
-        <v>0.233</v>
+        <v>0.175</v>
       </c>
       <c r="E92" t="n">
-        <v>0.207</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2412,16 +2414,16 @@
         <v>23</v>
       </c>
       <c r="B93" t="n">
-        <v>0.25</v>
+        <v>0.203</v>
       </c>
       <c r="C93" t="n">
-        <v>0.192</v>
+        <v>0.195</v>
       </c>
       <c r="D93" t="n">
-        <v>0.225</v>
+        <v>0.163</v>
       </c>
       <c r="E93" t="n">
-        <v>0.223</v>
+        <v>0.163</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2429,16 +2431,16 @@
         <v>23</v>
       </c>
       <c r="B94" t="n">
-        <v>0.229</v>
+        <v>0.208</v>
       </c>
       <c r="C94" t="n">
-        <v>0.193</v>
+        <v>0.19</v>
       </c>
       <c r="D94" t="n">
-        <v>0.251</v>
+        <v>0.199</v>
       </c>
       <c r="E94" t="n">
-        <v>0.244</v>
+        <v>0.163</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2446,16 +2448,16 @@
         <v>23</v>
       </c>
       <c r="B95" t="n">
-        <v>0.226</v>
+        <v>0.178</v>
       </c>
       <c r="C95" t="n">
-        <v>0.204</v>
+        <v>0.187</v>
       </c>
       <c r="D95" t="n">
-        <v>0.231</v>
+        <v>0.174</v>
       </c>
       <c r="E95" t="n">
-        <v>0.237</v>
+        <v>0.176</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2463,16 +2465,16 @@
         <v>23</v>
       </c>
       <c r="B96" t="n">
-        <v>0.254</v>
+        <v>0.191</v>
       </c>
       <c r="C96" t="n">
-        <v>0.204</v>
+        <v>0.187</v>
       </c>
       <c r="D96" t="n">
-        <v>0.199</v>
+        <v>0.169</v>
       </c>
       <c r="E96" t="n">
-        <v>0.231</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2480,16 +2482,16 @@
         <v>24</v>
       </c>
       <c r="B97" t="n">
-        <v>0.199</v>
+        <v>0.074</v>
       </c>
       <c r="C97" t="n">
-        <v>0.208</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="D97" t="n">
-        <v>0.196</v>
+        <v>0.075</v>
       </c>
       <c r="E97" t="n">
-        <v>0.201</v>
+        <v>0.096</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2497,16 +2499,16 @@
         <v>24</v>
       </c>
       <c r="B98" t="n">
-        <v>0.21</v>
+        <v>0.075</v>
       </c>
       <c r="C98" t="n">
-        <v>0.214</v>
+        <v>0.099</v>
       </c>
       <c r="D98" t="n">
-        <v>0.184</v>
+        <v>0.095</v>
       </c>
       <c r="E98" t="n">
-        <v>0.216</v>
+        <v>0.104</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2514,16 +2516,16 @@
         <v>24</v>
       </c>
       <c r="B99" t="n">
-        <v>0.177</v>
+        <v>0.079</v>
       </c>
       <c r="C99" t="n">
-        <v>0.208</v>
+        <v>0.079</v>
       </c>
       <c r="D99" t="n">
-        <v>0.211</v>
+        <v>0.082</v>
       </c>
       <c r="E99" t="n">
-        <v>0.192</v>
+        <v>0.107</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2531,16 +2533,16 @@
         <v>24</v>
       </c>
       <c r="B100" t="n">
-        <v>0.183</v>
+        <v>0.08</v>
       </c>
       <c r="C100" t="n">
-        <v>0.208</v>
+        <v>0.08</v>
       </c>
       <c r="D100" t="n">
-        <v>0.187</v>
+        <v>0.104</v>
       </c>
       <c r="E100" t="n">
-        <v>0.199</v>
+        <v>0.093</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2548,16 +2550,16 @@
         <v>24</v>
       </c>
       <c r="B101" t="n">
-        <v>0.198</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="C101" t="n">
-        <v>0.212</v>
+        <v>0.074</v>
       </c>
       <c r="D101" t="n">
-        <v>0.164</v>
+        <v>0.094</v>
       </c>
       <c r="E101" t="n">
-        <v>0.194</v>
+        <v>0.101</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2565,16 +2567,16 @@
         <v>25</v>
       </c>
       <c r="B102" t="n">
-        <v>0.166</v>
+        <v>0.06</v>
       </c>
       <c r="C102" t="n">
-        <v>0.176</v>
+        <v>0.077</v>
       </c>
       <c r="D102" t="n">
-        <v>0.198</v>
+        <v>0.091</v>
       </c>
       <c r="E102" t="n">
-        <v>0.203</v>
+        <v>0.097</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2582,16 +2584,16 @@
         <v>25</v>
       </c>
       <c r="B103" t="n">
-        <v>0.157</v>
+        <v>0.065</v>
       </c>
       <c r="C103" t="n">
-        <v>0.181</v>
+        <v>0.075</v>
       </c>
       <c r="D103" t="n">
-        <v>0.2</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="E103" t="n">
-        <v>0.197</v>
+        <v>0.075</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2599,16 +2601,16 @@
         <v>25</v>
       </c>
       <c r="B104" t="n">
-        <v>0.194</v>
+        <v>0.061</v>
       </c>
       <c r="C104" t="n">
-        <v>0.205</v>
+        <v>0.082</v>
       </c>
       <c r="D104" t="n">
-        <v>0.2</v>
+        <v>0.082</v>
       </c>
       <c r="E104" t="n">
-        <v>0.18</v>
+        <v>0.08400000000000001</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2616,16 +2618,16 @@
         <v>25</v>
       </c>
       <c r="B105" t="n">
-        <v>0.195</v>
+        <v>0.056</v>
       </c>
       <c r="C105" t="n">
-        <v>0.174</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="D105" t="n">
-        <v>0.193</v>
+        <v>0.083</v>
       </c>
       <c r="E105" t="n">
-        <v>0.19</v>
+        <v>0.076</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2633,16 +2635,16 @@
         <v>25</v>
       </c>
       <c r="B106" t="n">
-        <v>0.163</v>
+        <v>0.077</v>
       </c>
       <c r="C106" t="n">
-        <v>0.182</v>
+        <v>0.063</v>
       </c>
       <c r="D106" t="n">
-        <v>0.199</v>
+        <v>0.062</v>
       </c>
       <c r="E106" t="n">
-        <v>0.196</v>
+        <v>0.08400000000000001</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2650,16 +2652,16 @@
         <v>26</v>
       </c>
       <c r="B107" t="n">
-        <v>0.214</v>
+        <v>0.074</v>
       </c>
       <c r="C107" t="n">
-        <v>0.219</v>
+        <v>0.076</v>
       </c>
       <c r="D107" t="n">
-        <v>0.203</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="E107" t="n">
-        <v>0.225</v>
+        <v>0.118</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2667,16 +2669,16 @@
         <v>26</v>
       </c>
       <c r="B108" t="n">
-        <v>0.207</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="C108" t="n">
-        <v>0.189</v>
+        <v>0.1</v>
       </c>
       <c r="D108" t="n">
-        <v>0.209</v>
+        <v>0.082</v>
       </c>
       <c r="E108" t="n">
-        <v>0.219</v>
+        <v>0.107</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2684,16 +2686,16 @@
         <v>26</v>
       </c>
       <c r="B109" t="n">
-        <v>0.188</v>
+        <v>0.073</v>
       </c>
       <c r="C109" t="n">
-        <v>0.219</v>
+        <v>0.083</v>
       </c>
       <c r="D109" t="n">
-        <v>0.212</v>
+        <v>0.094</v>
       </c>
       <c r="E109" t="n">
-        <v>0.237</v>
+        <v>0.106</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2701,16 +2703,16 @@
         <v>26</v>
       </c>
       <c r="B110" t="n">
-        <v>0.201</v>
+        <v>0.081</v>
       </c>
       <c r="C110" t="n">
-        <v>0.169</v>
+        <v>0.08</v>
       </c>
       <c r="D110" t="n">
-        <v>0.185</v>
+        <v>0.095</v>
       </c>
       <c r="E110" t="n">
-        <v>0.2</v>
+        <v>0.119</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2718,16 +2720,16 @@
         <v>26</v>
       </c>
       <c r="B111" t="n">
-        <v>0.18</v>
+        <v>0.073</v>
       </c>
       <c r="C111" t="n">
-        <v>0.176</v>
+        <v>0.074</v>
       </c>
       <c r="D111" t="n">
-        <v>0.187</v>
+        <v>0.105</v>
       </c>
       <c r="E111" t="n">
-        <v>0.209</v>
+        <v>0.119</v>
       </c>
     </row>
   </sheetData>
